--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437405.1303761344</v>
+        <v>335541.9119080622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>412883.3004605485</v>
+        <v>412883.3004605488</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16120077.73698211</v>
+        <v>16120077.73698209</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136554.213729743</v>
+        <v>7136554.213729744</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.894730328167119</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.5768192634215</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>254.5768192634215</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>208.9822502180322</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>142.6968974289738</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>167.369221208004</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.8292699112955</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.3001136271938</v>
+        <v>82.09145249402955</v>
       </c>
       <c r="H12" t="n">
-        <v>116.013447650976</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>92.05966844771966</v>
       </c>
       <c r="J12" t="n">
-        <v>10.48053290778765</v>
+        <v>10.48053290778767</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>107.1223778230184</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>183.3345687810624</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>254.5768192634215</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>13.40873545256756</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.01294866538851</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4920859230888959</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>109.9137700410448</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>254.5768192634215</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>111.0092283924134</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.27268593796019</v>
+        <v>6.272685937960233</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>142.6968974289738</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>254.5768192634215</v>
-      </c>
-      <c r="W14" t="n">
-        <v>254.5768192634215</v>
-      </c>
-      <c r="X14" t="n">
-        <v>254.5768192634215</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>75.2616790402875</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>109.0775712388103</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.48053290778765</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>183.3345687810624</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>213.1793135669336</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>34.69576007476426</v>
       </c>
       <c r="W15" t="n">
-        <v>254.5768192634215</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>13.40873545256756</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.01294866538851</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4920859230888959</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>109.9137700410448</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,58 +1855,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>138.0543947935843</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>250.0781689449873</v>
+      </c>
+      <c r="V17" t="n">
+        <v>127.8629770636607</v>
+      </c>
+      <c r="W17" t="n">
         <v>274.3489689505702</v>
-      </c>
-      <c r="I17" t="n">
-        <v>206.1329861685091</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>35.51358568315292</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>125.8810334020615</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9.738340095436655</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0607743439406</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>129.4024732919099</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>35.51358568315292</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>274.3489689505702</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="W20" t="n">
-        <v>241.6465718516621</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>63.27983154076015</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.57976292505901</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2241,64 +2241,64 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>176.9163413602486</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>417.0027399999576</v>
       </c>
       <c r="H23" t="n">
-        <v>328.2242707793913</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T23" t="n">
-        <v>104.2702647938949</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.0037068556345</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>93.68480866724101</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2414,10 +2414,10 @@
         <v>147.7625612625606</v>
       </c>
       <c r="H24" t="n">
-        <v>116.2510546166082</v>
+        <v>110.2226632515833</v>
       </c>
       <c r="I24" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>211.0126003077321</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1634613908316</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>152.8669887558529</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.1035942082479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>37.1338805149945</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.0027399999576</v>
       </c>
       <c r="H26" t="n">
-        <v>328.2242707793913</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>170.249239921331</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.58652953972785</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>139.3372068997675</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0037068556345</v>
@@ -2617,7 +2617,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>108.7680018534387</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -2654,7 +2654,7 @@
         <v>116.2510546166082</v>
       </c>
       <c r="I27" t="n">
-        <v>42.08372409106559</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S27" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.0126003077321</v>
       </c>
       <c r="U27" t="n">
         <v>237.1634613908316</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6116490391096</v>
+        <v>152.8669887558528</v>
       </c>
       <c r="V28" t="n">
-        <v>154.5660468060788</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.58652953972785</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.6920659211268</v>
+        <v>151.9424016363092</v>
       </c>
       <c r="T29" t="n">
-        <v>214.4312736056394</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>166.1170394534255</v>
+        <v>250.0037068556345</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.7625612625606</v>
@@ -2891,7 +2891,7 @@
         <v>116.2510546166082</v>
       </c>
       <c r="I30" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S30" t="n">
-        <v>173.3497693765811</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.0126003077321</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1634613908316</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>103.5815353801688</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.3750531980814</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.3189043822527</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8669887558528</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>60.24735978526633</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.0027399999576</v>
       </c>
       <c r="H32" t="n">
-        <v>328.2242707793913</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>170.249239921331</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.6920659211268</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.4312736056394</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0037068556345</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>161.0225810815815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>105.8134902401921</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7625612625606</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.0126003077321</v>
       </c>
       <c r="U33" t="n">
         <v>237.1634613908316</v>
@@ -3170,7 +3170,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>199.6432379238828</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>166.410857974067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T34" t="n">
-        <v>55.67687696613451</v>
+        <v>4.946462126032817</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>80.43185101687925</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.0027399999576</v>
       </c>
       <c r="H35" t="n">
-        <v>328.2242707793913</v>
+        <v>25.48116681962787</v>
       </c>
       <c r="I35" t="n">
-        <v>170.249239921331</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>131.0834981452275</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.7625612625606</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>116.2510546166082</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.0797288701305</v>
       </c>
       <c r="U36" t="n">
         <v>237.1634613908316</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6116490391096</v>
+        <v>152.8669887558529</v>
       </c>
       <c r="V37" t="n">
-        <v>154.5660468060786</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>44.24107446481217</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.0027399999576</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>328.2242707793913</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>170.249239921331</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>61.17090764851073</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>103.3285473003554</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.7625612625606</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>116.2510546166082</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.74697749956199</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.0126003077321</v>
@@ -3641,7 +3641,7 @@
         <v>237.1634613908316</v>
       </c>
       <c r="V39" t="n">
-        <v>10.53960168135077</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>131.5378646225051</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>156.3189043822524</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>228.9487766948979</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.0027399999576</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>326.2357985995194</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>163.1789355707497</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -3833,13 +3833,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.7625612625606</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>116.2510546166082</v>
       </c>
       <c r="I42" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.0126003077321</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1634613908316</v>
+        <v>219.7253162117884</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.8669887558528</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6116490391096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>154.5660468060788</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>185.5646232374362</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.0027399999576</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>28.33259297940247</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S44" t="n">
-        <v>185.6920659211268</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T44" t="n">
-        <v>214.4312736056394</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.7625612625606</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2510546166082</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.0126003077321</v>
       </c>
       <c r="U45" t="n">
         <v>237.1634613908316</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>22.47588739019688</v>
+        <v>142.7760545004543</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>152.8669887558528</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>152.8669887558531</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="C11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="D11" t="n">
-        <v>231.45932757949</v>
+        <v>534.6627501136425</v>
       </c>
       <c r="E11" t="n">
-        <v>231.45932757949</v>
+        <v>277.5144478273581</v>
       </c>
       <c r="F11" t="n">
-        <v>231.45932757949</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="G11" t="n">
-        <v>231.45932757949</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="H11" t="n">
-        <v>231.45932757949</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="I11" t="n">
         <v>20.36614554107372</v>
@@ -5044,10 +5044,10 @@
         <v>20.36614554107372</v>
       </c>
       <c r="K11" t="n">
-        <v>118.3240922373016</v>
+        <v>118.3240922373017</v>
       </c>
       <c r="L11" t="n">
-        <v>294.8326495782454</v>
+        <v>294.8326495782455</v>
       </c>
       <c r="M11" t="n">
         <v>520.1083888625421</v>
@@ -5065,28 +5065,28 @@
         <v>1018.307277053686</v>
       </c>
       <c r="R11" t="n">
-        <v>874.1689968223991</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="S11" t="n">
-        <v>705.1091774203749</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="T11" t="n">
-        <v>484.0695108433086</v>
+        <v>797.2676104766198</v>
       </c>
       <c r="U11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="V11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="W11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="X11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
       <c r="Y11" t="n">
-        <v>231.45932757949</v>
+        <v>544.6574272128012</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>724.9164218980487</v>
+        <v>367.2904818738669</v>
       </c>
       <c r="C12" t="n">
-        <v>724.9164218980487</v>
+        <v>367.2904818738669</v>
       </c>
       <c r="D12" t="n">
-        <v>724.9164218980487</v>
+        <v>367.2904818738669</v>
       </c>
       <c r="E12" t="n">
-        <v>551.3532180194632</v>
+        <v>367.2904818738669</v>
       </c>
       <c r="F12" t="n">
-        <v>390.9255017367072</v>
+        <v>206.862765591111</v>
       </c>
       <c r="G12" t="n">
-        <v>241.1274071637842</v>
+        <v>123.9421065062326</v>
       </c>
       <c r="H12" t="n">
         <v>123.9421065062326</v>
       </c>
       <c r="I12" t="n">
-        <v>30.9525424176269</v>
+        <v>30.95254241762692</v>
       </c>
       <c r="J12" t="n">
         <v>20.36614554107372</v>
       </c>
       <c r="K12" t="n">
-        <v>129.3872405685386</v>
+        <v>64.96725362593239</v>
       </c>
       <c r="L12" t="n">
-        <v>342.2660992063376</v>
+        <v>277.8461122637312</v>
       </c>
       <c r="M12" t="n">
-        <v>529.8771633345184</v>
+        <v>529.8771633345185</v>
       </c>
       <c r="N12" t="n">
-        <v>781.9082144053057</v>
+        <v>781.9082144053058</v>
       </c>
       <c r="O12" t="n">
         <v>1018.307277053686</v>
@@ -5144,28 +5144,28 @@
         <v>1018.307277053686</v>
       </c>
       <c r="R12" t="n">
-        <v>910.102855010233</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="S12" t="n">
-        <v>724.9164218980487</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="T12" t="n">
-        <v>724.9164218980487</v>
+        <v>802.9746370870864</v>
       </c>
       <c r="U12" t="n">
-        <v>724.9164218980487</v>
+        <v>802.9746370870864</v>
       </c>
       <c r="V12" t="n">
-        <v>724.9164218980487</v>
+        <v>802.9746370870864</v>
       </c>
       <c r="W12" t="n">
-        <v>724.9164218980487</v>
+        <v>545.826334800802</v>
       </c>
       <c r="X12" t="n">
-        <v>724.9164218980487</v>
+        <v>545.826334800802</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.9164218980487</v>
+        <v>545.826334800802</v>
       </c>
     </row>
     <row r="13">
@@ -5205,37 +5205,37 @@
         <v>20.36614554107372</v>
       </c>
       <c r="L13" t="n">
-        <v>43.38415032332212</v>
+        <v>43.38415032332209</v>
       </c>
       <c r="M13" t="n">
-        <v>76.2492986531384</v>
+        <v>76.24929865313834</v>
       </c>
       <c r="N13" t="n">
-        <v>116.3491234724531</v>
+        <v>116.349123472453</v>
       </c>
       <c r="O13" t="n">
-        <v>131.3901556835434</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="P13" t="n">
-        <v>117.8459784587277</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.8632020290423</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="R13" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="S13" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="T13" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="U13" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="V13" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="W13" t="n">
         <v>20.36614554107372</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.70219194305371</v>
+        <v>395.9810279590486</v>
       </c>
       <c r="C14" t="n">
-        <v>26.70219194305371</v>
+        <v>138.8327256727642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.70219194305371</v>
+        <v>138.8327256727642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.70219194305371</v>
+        <v>26.70219194305376</v>
       </c>
       <c r="F14" t="n">
-        <v>26.70219194305371</v>
+        <v>26.70219194305376</v>
       </c>
       <c r="G14" t="n">
-        <v>26.70219194305371</v>
+        <v>26.70219194305376</v>
       </c>
       <c r="H14" t="n">
-        <v>26.70219194305371</v>
+        <v>26.70219194305376</v>
       </c>
       <c r="I14" t="n">
-        <v>26.70219194305371</v>
+        <v>26.70219194305376</v>
       </c>
       <c r="J14" t="n">
         <v>20.36614554107372</v>
@@ -5284,16 +5284,16 @@
         <v>118.3240922373016</v>
       </c>
       <c r="L14" t="n">
-        <v>294.8326495782454</v>
+        <v>294.8326495782453</v>
       </c>
       <c r="M14" t="n">
-        <v>520.1083888625421</v>
+        <v>520.1083888625424</v>
       </c>
       <c r="N14" t="n">
-        <v>742.1868891099987</v>
+        <v>742.1868891099988</v>
       </c>
       <c r="O14" t="n">
-        <v>914.9799607410171</v>
+        <v>914.9799607410172</v>
       </c>
       <c r="P14" t="n">
         <v>1018.307277053686</v>
@@ -5302,28 +5302,28 @@
         <v>1018.307277053686</v>
       </c>
       <c r="R14" t="n">
-        <v>874.1689968223991</v>
+        <v>874.1689968223992</v>
       </c>
       <c r="S14" t="n">
-        <v>874.1689968223991</v>
+        <v>874.1689968223992</v>
       </c>
       <c r="T14" t="n">
-        <v>874.1689968223991</v>
+        <v>653.129330245333</v>
       </c>
       <c r="U14" t="n">
-        <v>874.1689968223991</v>
+        <v>653.129330245333</v>
       </c>
       <c r="V14" t="n">
-        <v>617.0206945361148</v>
+        <v>653.129330245333</v>
       </c>
       <c r="W14" t="n">
-        <v>359.8723922498305</v>
+        <v>653.129330245333</v>
       </c>
       <c r="X14" t="n">
-        <v>102.7240899635461</v>
+        <v>653.129330245333</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.70219194305371</v>
+        <v>395.9810279590486</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141.131907305314</v>
+        <v>359.5765143810331</v>
       </c>
       <c r="C15" t="n">
-        <v>30.9525424176269</v>
+        <v>170.1642401139968</v>
       </c>
       <c r="D15" t="n">
-        <v>30.9525424176269</v>
+        <v>170.1642401139968</v>
       </c>
       <c r="E15" t="n">
-        <v>30.9525424176269</v>
+        <v>170.1642401139968</v>
       </c>
       <c r="F15" t="n">
-        <v>30.9525424176269</v>
+        <v>170.1642401139968</v>
       </c>
       <c r="G15" t="n">
-        <v>30.9525424176269</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="H15" t="n">
-        <v>30.9525424176269</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="I15" t="n">
-        <v>30.9525424176269</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="J15" t="n">
         <v>20.36614554107372</v>
       </c>
       <c r="K15" t="n">
-        <v>129.3872405685386</v>
+        <v>20.36614554107372</v>
       </c>
       <c r="L15" t="n">
-        <v>342.2660992063376</v>
+        <v>233.2450041788726</v>
       </c>
       <c r="M15" t="n">
-        <v>594.2971502771248</v>
+        <v>480.5064465470737</v>
       </c>
       <c r="N15" t="n">
-        <v>801.2819729275161</v>
+        <v>732.5374976178609</v>
       </c>
       <c r="O15" t="n">
-        <v>801.2819729275161</v>
+        <v>968.9365602662411</v>
       </c>
       <c r="P15" t="n">
-        <v>968.9365602662409</v>
+        <v>968.9365602662411</v>
       </c>
       <c r="Q15" t="n">
         <v>1018.307277053686</v>
@@ -5384,25 +5384,25 @@
         <v>1018.307277053686</v>
       </c>
       <c r="S15" t="n">
-        <v>833.1208439415016</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="T15" t="n">
-        <v>617.788203974902</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="U15" t="n">
-        <v>617.788203974902</v>
+        <v>1018.307277053686</v>
       </c>
       <c r="V15" t="n">
-        <v>617.788203974902</v>
+        <v>983.2610547559443</v>
       </c>
       <c r="W15" t="n">
-        <v>360.6399016886177</v>
+        <v>983.2610547559443</v>
       </c>
       <c r="X15" t="n">
-        <v>141.131907305314</v>
+        <v>763.7530603726407</v>
       </c>
       <c r="Y15" t="n">
-        <v>141.131907305314</v>
+        <v>538.1123673079683</v>
       </c>
     </row>
     <row r="16">
@@ -5442,34 +5442,34 @@
         <v>20.36614554107372</v>
       </c>
       <c r="L16" t="n">
-        <v>43.38415032332212</v>
+        <v>43.38415032332209</v>
       </c>
       <c r="M16" t="n">
-        <v>76.2492986531384</v>
+        <v>76.24929865313834</v>
       </c>
       <c r="N16" t="n">
-        <v>116.3491234724531</v>
+        <v>116.349123472453</v>
       </c>
       <c r="O16" t="n">
-        <v>131.3901556835434</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="P16" t="n">
-        <v>117.8459784587277</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.8632020290423</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="R16" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="S16" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="T16" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="U16" t="n">
-        <v>20.36614554107372</v>
+        <v>131.3901556835433</v>
       </c>
       <c r="V16" t="n">
         <v>20.36614554107372</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="C17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="D17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="F17" t="n">
-        <v>784.4033963742775</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="G17" t="n">
-        <v>507.2832257171358</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H17" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I17" t="n">
         <v>21.94791751604561</v>
@@ -5518,7 +5518,7 @@
         <v>21.94791751604561</v>
       </c>
       <c r="K17" t="n">
-        <v>129.2129831052408</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L17" t="n">
         <v>317.2678444246599</v>
@@ -5530,7 +5530,7 @@
         <v>790.5249455637493</v>
       </c>
       <c r="O17" t="n">
-        <v>975.6458363697327</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P17" t="n">
         <v>1089.494661134058</v>
@@ -5539,28 +5539,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R17" t="n">
-        <v>1061.523567031419</v>
+        <v>957.9469921723975</v>
       </c>
       <c r="S17" t="n">
-        <v>1061.523567031419</v>
+        <v>957.9469921723975</v>
       </c>
       <c r="T17" t="n">
-        <v>1061.523567031419</v>
+        <v>957.9469921723975</v>
       </c>
       <c r="U17" t="n">
-        <v>1061.523567031419</v>
+        <v>705.3427811168548</v>
       </c>
       <c r="V17" t="n">
-        <v>1061.523567031419</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="W17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="X17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="Y17" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.8809261773754</v>
+        <v>218.1728828288791</v>
       </c>
       <c r="C18" t="n">
-        <v>160.8809261773754</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="D18" t="n">
-        <v>160.8809261773754</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="E18" t="n">
-        <v>160.8809261773754</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="F18" t="n">
-        <v>160.8809261773754</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="G18" t="n">
-        <v>151.0442190102677</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="H18" t="n">
         <v>28.7606085618428</v>
@@ -5597,19 +5597,19 @@
         <v>21.94791751604561</v>
       </c>
       <c r="K18" t="n">
-        <v>137.2905245750913</v>
+        <v>87.09268422765345</v>
       </c>
       <c r="L18" t="n">
-        <v>358.6694362623893</v>
+        <v>308.4715959149514</v>
       </c>
       <c r="M18" t="n">
-        <v>630.2749155234537</v>
+        <v>580.0770751760159</v>
       </c>
       <c r="N18" t="n">
-        <v>676.5524533185537</v>
+        <v>851.6825544370804</v>
       </c>
       <c r="O18" t="n">
-        <v>922.265774683754</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="P18" t="n">
         <v>1097.395875802281</v>
@@ -5621,25 +5621,25 @@
         <v>1097.395875802281</v>
       </c>
       <c r="S18" t="n">
-        <v>912.9513601587956</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T18" t="n">
-        <v>912.9513601587956</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U18" t="n">
-        <v>673.35921354345</v>
+        <v>857.803729186935</v>
       </c>
       <c r="V18" t="n">
-        <v>430.2794954470841</v>
+        <v>614.7240110905691</v>
       </c>
       <c r="W18" t="n">
-        <v>160.8809261773754</v>
+        <v>345.3254418208604</v>
       </c>
       <c r="X18" t="n">
-        <v>160.8809261773754</v>
+        <v>345.3254418208604</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.8809261773754</v>
+        <v>345.3254418208604</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="C19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="D19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="E19" t="n">
         <v>21.94791751604561</v>
@@ -5712,13 +5712,13 @@
         <v>152.6574864977728</v>
       </c>
       <c r="W19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="X19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.94791751604561</v>
+        <v>784.4033963742775</v>
       </c>
       <c r="C20" t="n">
-        <v>21.94791751604561</v>
+        <v>784.4033963742775</v>
       </c>
       <c r="D20" t="n">
-        <v>21.94791751604561</v>
+        <v>784.4033963742775</v>
       </c>
       <c r="E20" t="n">
-        <v>21.94791751604561</v>
+        <v>784.4033963742775</v>
       </c>
       <c r="F20" t="n">
-        <v>21.94791751604561</v>
+        <v>507.2832257171358</v>
       </c>
       <c r="G20" t="n">
-        <v>21.94791751604561</v>
+        <v>230.1630550599942</v>
       </c>
       <c r="H20" t="n">
-        <v>21.94791751604561</v>
+        <v>230.1630550599942</v>
       </c>
       <c r="I20" t="n">
         <v>21.94791751604561</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K20" t="n">
         <v>129.2129831052409</v>
@@ -5761,13 +5761,13 @@
         <v>317.2678444246599</v>
       </c>
       <c r="M20" t="n">
-        <v>555.3910716196101</v>
+        <v>555.3910716196099</v>
       </c>
       <c r="N20" t="n">
-        <v>790.5249455637495</v>
+        <v>790.5249455637493</v>
       </c>
       <c r="O20" t="n">
-        <v>975.645836369733</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P20" t="n">
         <v>1089.494661134058</v>
@@ -5788,16 +5788,16 @@
         <v>1097.395875802281</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.395875802281</v>
+        <v>820.275705145139</v>
       </c>
       <c r="W20" t="n">
-        <v>853.3084294874704</v>
+        <v>820.275705145139</v>
       </c>
       <c r="X20" t="n">
-        <v>576.1882588303288</v>
+        <v>820.275705145139</v>
       </c>
       <c r="Y20" t="n">
-        <v>299.0680881731872</v>
+        <v>820.275705145139</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.9233956616674</v>
+        <v>92.67963032018639</v>
       </c>
       <c r="C21" t="n">
-        <v>195.5111213946311</v>
+        <v>92.67963032018639</v>
       </c>
       <c r="D21" t="n">
-        <v>195.5111213946311</v>
+        <v>92.67963032018639</v>
       </c>
       <c r="E21" t="n">
-        <v>21.94791751604561</v>
+        <v>92.67963032018639</v>
       </c>
       <c r="F21" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="G21" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="H21" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="I21" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="J21" t="n">
         <v>21.94791751604561</v>
       </c>
       <c r="K21" t="n">
-        <v>21.94791751604561</v>
+        <v>32.72478444954859</v>
       </c>
       <c r="L21" t="n">
-        <v>243.3268292033436</v>
+        <v>254.1036961368466</v>
       </c>
       <c r="M21" t="n">
-        <v>404.9469740574892</v>
+        <v>525.7091753979111</v>
       </c>
       <c r="N21" t="n">
-        <v>676.5524533185537</v>
+        <v>797.3146546589755</v>
       </c>
       <c r="O21" t="n">
-        <v>922.265774683754</v>
+        <v>1043.027976024176</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.395875802281</v>
+        <v>1043.027976024176</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.395875802281</v>
       </c>
       <c r="R21" t="n">
-        <v>1052.365812241615</v>
+        <v>991.6714026813561</v>
       </c>
       <c r="S21" t="n">
-        <v>1052.365812241615</v>
+        <v>807.2268870378711</v>
       </c>
       <c r="T21" t="n">
-        <v>1052.365812241615</v>
+        <v>807.2268870378711</v>
       </c>
       <c r="U21" t="n">
-        <v>1052.365812241615</v>
+        <v>807.2268870378711</v>
       </c>
       <c r="V21" t="n">
-        <v>1052.365812241615</v>
+        <v>807.2268870378711</v>
       </c>
       <c r="W21" t="n">
-        <v>782.9672429719062</v>
+        <v>537.8283177681624</v>
       </c>
       <c r="X21" t="n">
-        <v>563.4592485886026</v>
+        <v>318.3203233848587</v>
       </c>
       <c r="Y21" t="n">
-        <v>563.4592485886026</v>
+        <v>92.67963032018639</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="C22" t="n">
         <v>21.94791751604561</v>
@@ -5946,16 +5946,16 @@
         <v>152.6574864977728</v>
       </c>
       <c r="V22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="W22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="X22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604561</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1149.962391818405</v>
+        <v>1391.839141800142</v>
       </c>
       <c r="C23" t="n">
-        <v>796.2194651707498</v>
+        <v>1213.13576668878</v>
       </c>
       <c r="D23" t="n">
-        <v>796.2194651707498</v>
+        <v>871.9517670501662</v>
       </c>
       <c r="E23" t="n">
-        <v>796.2194651707498</v>
+        <v>871.9517670501662</v>
       </c>
       <c r="F23" t="n">
-        <v>796.2194651707498</v>
+        <v>464.6797977168191</v>
       </c>
       <c r="G23" t="n">
-        <v>375.0045762819037</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H23" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I23" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J23" t="n">
         <v>121.673383686049</v>
       </c>
       <c r="K23" t="n">
-        <v>346.1526796318383</v>
+        <v>346.1526796318381</v>
       </c>
       <c r="L23" t="n">
-        <v>679.6221584998606</v>
+        <v>679.6221584998607</v>
       </c>
       <c r="M23" t="n">
         <v>1079.547166114824</v>
@@ -6007,34 +6007,34 @@
         <v>1819.478884674072</v>
       </c>
       <c r="P23" t="n">
-        <v>2065.836010829403</v>
+        <v>2065.836010829402</v>
       </c>
       <c r="Q23" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R23" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S23" t="n">
-        <v>2173.245441398656</v>
+        <v>1985.677698043982</v>
       </c>
       <c r="T23" t="n">
-        <v>2067.921941606843</v>
+        <v>1985.677698043982</v>
       </c>
       <c r="U23" t="n">
-        <v>1815.39294478297</v>
+        <v>1733.148701220108</v>
       </c>
       <c r="V23" t="n">
-        <v>1491.271951238372</v>
+        <v>1733.148701220108</v>
       </c>
       <c r="W23" t="n">
-        <v>1149.962391818405</v>
+        <v>1391.839141800142</v>
       </c>
       <c r="X23" t="n">
-        <v>1149.962391818405</v>
+        <v>1391.839141800142</v>
       </c>
       <c r="Y23" t="n">
-        <v>1149.962391818405</v>
+        <v>1391.839141800142</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1002.474425869724</v>
+        <v>827.4592391292235</v>
       </c>
       <c r="C24" t="n">
-        <v>813.0621516026879</v>
+        <v>638.0469648621872</v>
       </c>
       <c r="D24" t="n">
-        <v>718.4310317367879</v>
+        <v>638.0469648621872</v>
       </c>
       <c r="E24" t="n">
-        <v>544.8678278582023</v>
+        <v>464.4837609836017</v>
       </c>
       <c r="F24" t="n">
-        <v>384.4401115754464</v>
+        <v>304.0560447008457</v>
       </c>
       <c r="G24" t="n">
-        <v>235.1849991890216</v>
+        <v>154.8009323144209</v>
       </c>
       <c r="H24" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I24" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J24" t="n">
-        <v>43.46490882797311</v>
+        <v>83.36822217776697</v>
       </c>
       <c r="K24" t="n">
-        <v>209.4397582588621</v>
+        <v>278.3242064798578</v>
       </c>
       <c r="L24" t="n">
-        <v>537.8686805504176</v>
+        <v>606.7531287714133</v>
       </c>
       <c r="M24" t="n">
-        <v>965.8844060906313</v>
+        <v>1034.768854311627</v>
       </c>
       <c r="N24" t="n">
-        <v>1423.648323852234</v>
+        <v>1492.532772073229</v>
       </c>
       <c r="O24" t="n">
-        <v>1786.665794803318</v>
+        <v>1855.550243024313</v>
       </c>
       <c r="P24" t="n">
-        <v>2055.942817681023</v>
+        <v>2124.827265902019</v>
       </c>
       <c r="Q24" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R24" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S24" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="T24" t="n">
-        <v>1960.101400683775</v>
+        <v>1960.101400683774</v>
       </c>
       <c r="U24" t="n">
-        <v>1960.101400683775</v>
+        <v>1720.542348773843</v>
       </c>
       <c r="V24" t="n">
-        <v>1717.021682587409</v>
+        <v>1720.542348773843</v>
       </c>
       <c r="W24" t="n">
-        <v>1447.6231133177</v>
+        <v>1451.143779504135</v>
       </c>
       <c r="X24" t="n">
-        <v>1228.115118934397</v>
+        <v>1231.635785120831</v>
       </c>
       <c r="Y24" t="n">
-        <v>1002.474425869724</v>
+        <v>1005.995092056159</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.603475466329</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="C25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="D25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="E25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J25" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K25" t="n">
-        <v>71.80257933405355</v>
+        <v>71.80257933405352</v>
       </c>
       <c r="L25" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M25" t="n">
         <v>263.954915982465</v>
       </c>
       <c r="N25" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O25" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="U25" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="V25" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="W25" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="X25" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.0145064410443</v>
+        <v>43.4649088279731</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1375.460363717562</v>
+        <v>877.4199922386682</v>
       </c>
       <c r="C26" t="n">
-        <v>1375.460363717562</v>
+        <v>877.4199922386682</v>
       </c>
       <c r="D26" t="n">
-        <v>1375.460363717562</v>
+        <v>839.911022021502</v>
       </c>
       <c r="E26" t="n">
-        <v>1375.460363717562</v>
+        <v>464.6797977168191</v>
       </c>
       <c r="F26" t="n">
-        <v>968.1883943842154</v>
+        <v>464.6797977168191</v>
       </c>
       <c r="G26" t="n">
-        <v>546.9735054953694</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H26" t="n">
-        <v>215.4338380414387</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I26" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J26" t="n">
-        <v>121.6733836860487</v>
+        <v>121.6733836860489</v>
       </c>
       <c r="K26" t="n">
-        <v>346.1526796318379</v>
+        <v>346.152679631838</v>
       </c>
       <c r="L26" t="n">
-        <v>679.6221584998606</v>
+        <v>679.6221584998605</v>
       </c>
       <c r="M26" t="n">
         <v>1079.547166114824</v>
       </c>
       <c r="N26" t="n">
-        <v>1479.100942444726</v>
+        <v>1479.100942444725</v>
       </c>
       <c r="O26" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P26" t="n">
         <v>2065.836010829402</v>
@@ -6250,28 +6250,28 @@
         <v>2173.245441398655</v>
       </c>
       <c r="R26" t="n">
-        <v>2092.855007520142</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S26" t="n">
-        <v>2092.855007520142</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.110354086034</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="U26" t="n">
-        <v>1699.581357262161</v>
+        <v>1920.716444574781</v>
       </c>
       <c r="V26" t="n">
-        <v>1375.460363717562</v>
+        <v>1596.595451030184</v>
       </c>
       <c r="W26" t="n">
-        <v>1375.460363717562</v>
+        <v>1255.285891610217</v>
       </c>
       <c r="X26" t="n">
-        <v>1375.460363717562</v>
+        <v>1255.285891610217</v>
       </c>
       <c r="Y26" t="n">
-        <v>1375.460363717562</v>
+        <v>1255.285891610217</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1036.837451788485</v>
+        <v>1004.926886903034</v>
       </c>
       <c r="C27" t="n">
-        <v>847.4251775214489</v>
+        <v>815.5146126359975</v>
       </c>
       <c r="D27" t="n">
-        <v>686.6450612824806</v>
+        <v>654.7344963970293</v>
       </c>
       <c r="E27" t="n">
-        <v>513.081857403895</v>
+        <v>544.8678278582023</v>
       </c>
       <c r="F27" t="n">
-        <v>352.6541411211391</v>
+        <v>384.4401115754464</v>
       </c>
       <c r="G27" t="n">
-        <v>203.3990287347143</v>
+        <v>235.1849991890216</v>
       </c>
       <c r="H27" t="n">
-        <v>85.97372104117068</v>
+        <v>117.759691495478</v>
       </c>
       <c r="I27" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J27" t="n">
-        <v>83.36822217776697</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K27" t="n">
-        <v>278.3242064798579</v>
+        <v>209.4397582588612</v>
       </c>
       <c r="L27" t="n">
-        <v>606.7531287714135</v>
+        <v>537.8686805504167</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.768854311627</v>
+        <v>965.8844060906304</v>
       </c>
       <c r="N27" t="n">
-        <v>1492.53277207323</v>
+        <v>1423.648323852233</v>
       </c>
       <c r="O27" t="n">
         <v>1786.665794803317</v>
       </c>
       <c r="P27" t="n">
-        <v>2055.942817681023</v>
+        <v>2055.942817681022</v>
       </c>
       <c r="Q27" t="n">
         <v>2173.245441398655</v>
       </c>
       <c r="R27" t="n">
-        <v>2098.753544934451</v>
+        <v>2098.75354493445</v>
       </c>
       <c r="S27" t="n">
-        <v>1923.65276778639</v>
+        <v>2098.75354493445</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.65276778639</v>
+        <v>1885.60950421957</v>
       </c>
       <c r="U27" t="n">
-        <v>1684.093715876459</v>
+        <v>1646.050452309639</v>
       </c>
       <c r="V27" t="n">
-        <v>1441.013997780093</v>
+        <v>1402.970734213273</v>
       </c>
       <c r="W27" t="n">
-        <v>1441.013997780093</v>
+        <v>1402.970734213273</v>
       </c>
       <c r="X27" t="n">
-        <v>1441.013997780093</v>
+        <v>1183.462739829969</v>
       </c>
       <c r="Y27" t="n">
-        <v>1215.37330471542</v>
+        <v>1183.462739829969</v>
       </c>
     </row>
     <row r="28">
@@ -6387,40 +6387,40 @@
         <v>43.4649088279731</v>
       </c>
       <c r="K28" t="n">
-        <v>71.80257933405355</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L28" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M28" t="n">
-        <v>263.954915982465</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N28" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O28" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P28" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q28" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R28" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S28" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T28" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="U28" t="n">
-        <v>199.5922288341133</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="V28" t="n">
-        <v>43.4649088279731</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="W28" t="n">
         <v>43.4649088279731</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1520.895028752272</v>
+        <v>738.391835114242</v>
       </c>
       <c r="C29" t="n">
-        <v>1167.152102104616</v>
+        <v>384.6489084665865</v>
       </c>
       <c r="D29" t="n">
-        <v>825.9681024660031</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="E29" t="n">
-        <v>450.7368781613201</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F29" t="n">
         <v>43.4649088279731</v>
@@ -6463,13 +6463,13 @@
         <v>43.4649088279731</v>
       </c>
       <c r="J29" t="n">
-        <v>121.6733836860489</v>
+        <v>121.6733836860487</v>
       </c>
       <c r="K29" t="n">
-        <v>346.1526796318381</v>
+        <v>346.1526796318379</v>
       </c>
       <c r="L29" t="n">
-        <v>679.6221584998607</v>
+        <v>679.6221584998605</v>
       </c>
       <c r="M29" t="n">
         <v>1079.547166114824</v>
@@ -6478,7 +6478,7 @@
         <v>1479.100942444725</v>
       </c>
       <c r="O29" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P29" t="n">
         <v>2065.836010829402</v>
@@ -6487,28 +6487,28 @@
         <v>2173.245441398655</v>
       </c>
       <c r="R29" t="n">
-        <v>2092.855007520142</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S29" t="n">
-        <v>1905.287264165469</v>
+        <v>2019.768268028645</v>
       </c>
       <c r="T29" t="n">
-        <v>1688.690018099166</v>
+        <v>2019.768268028645</v>
       </c>
       <c r="U29" t="n">
-        <v>1520.895028752272</v>
+        <v>1767.239271204772</v>
       </c>
       <c r="V29" t="n">
-        <v>1520.895028752272</v>
+        <v>1443.118277660174</v>
       </c>
       <c r="W29" t="n">
-        <v>1520.895028752272</v>
+        <v>1101.808718240208</v>
       </c>
       <c r="X29" t="n">
-        <v>1520.895028752272</v>
+        <v>738.391835114242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1520.895028752272</v>
+        <v>738.391835114242</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1068.623422242792</v>
+        <v>499.5576031749778</v>
       </c>
       <c r="C30" t="n">
-        <v>879.2111479757561</v>
+        <v>310.1453289079415</v>
       </c>
       <c r="D30" t="n">
-        <v>718.4310317367879</v>
+        <v>310.1453289079415</v>
       </c>
       <c r="E30" t="n">
-        <v>544.8678278582023</v>
+        <v>310.1453289079415</v>
       </c>
       <c r="F30" t="n">
-        <v>384.4401115754464</v>
+        <v>310.1453289079415</v>
       </c>
       <c r="G30" t="n">
-        <v>235.1849991890216</v>
+        <v>160.8902165215167</v>
       </c>
       <c r="H30" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I30" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J30" t="n">
-        <v>83.36822217776697</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3242064798579</v>
+        <v>209.4397582588612</v>
       </c>
       <c r="L30" t="n">
-        <v>606.7531287714135</v>
+        <v>537.8686805504167</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.768854311627</v>
+        <v>965.8844060906304</v>
       </c>
       <c r="N30" t="n">
         <v>1423.648323852233</v>
@@ -6560,34 +6560,34 @@
         <v>1786.665794803317</v>
       </c>
       <c r="P30" t="n">
-        <v>2055.942817681023</v>
+        <v>2055.942817681022</v>
       </c>
       <c r="Q30" t="n">
         <v>2173.245441398655</v>
       </c>
       <c r="R30" t="n">
-        <v>2098.753544934451</v>
+        <v>2098.75354493445</v>
       </c>
       <c r="S30" t="n">
-        <v>1923.65276778639</v>
+        <v>1923.652767786389</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.65276778639</v>
+        <v>1710.508727071508</v>
       </c>
       <c r="U30" t="n">
-        <v>1923.65276778639</v>
+        <v>1470.949675161577</v>
       </c>
       <c r="V30" t="n">
-        <v>1680.573049690024</v>
+        <v>1227.869957065211</v>
       </c>
       <c r="W30" t="n">
-        <v>1411.174480420315</v>
+        <v>1123.242143549889</v>
       </c>
       <c r="X30" t="n">
-        <v>1411.174480420315</v>
+        <v>903.7341491665852</v>
       </c>
       <c r="Y30" t="n">
-        <v>1247.159275169728</v>
+        <v>678.0934561019128</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="C31" t="n">
-        <v>333.2212638410394</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="D31" t="n">
-        <v>186.5721221736549</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="E31" t="n">
         <v>43.4649088279731</v>
@@ -6624,49 +6624,49 @@
         <v>43.4649088279731</v>
       </c>
       <c r="K31" t="n">
-        <v>71.80257933405355</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L31" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M31" t="n">
-        <v>263.954915982465</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N31" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O31" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P31" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q31" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R31" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="S31" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="T31" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="U31" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="V31" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="W31" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="X31" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="Y31" t="n">
-        <v>491.1191470554361</v>
+        <v>43.4649088279731</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1445.162726872856</v>
+        <v>1038.688645543915</v>
       </c>
       <c r="C32" t="n">
-        <v>1091.4198002252</v>
+        <v>1038.688645543915</v>
       </c>
       <c r="D32" t="n">
-        <v>750.2358005865867</v>
+        <v>697.5046459053012</v>
       </c>
       <c r="E32" t="n">
-        <v>375.0045762819037</v>
+        <v>697.5046459053012</v>
       </c>
       <c r="F32" t="n">
-        <v>375.0045762819037</v>
+        <v>636.6487269302847</v>
       </c>
       <c r="G32" t="n">
-        <v>375.0045762819037</v>
+        <v>215.4338380414387</v>
       </c>
       <c r="H32" t="n">
-        <v>43.4649088279731</v>
+        <v>215.4338380414387</v>
       </c>
       <c r="I32" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J32" t="n">
-        <v>121.673383686049</v>
+        <v>121.6733836860487</v>
       </c>
       <c r="K32" t="n">
-        <v>346.1526796318382</v>
+        <v>346.1526796318379</v>
       </c>
       <c r="L32" t="n">
-        <v>679.6221584998608</v>
+        <v>679.6221584998605</v>
       </c>
       <c r="M32" t="n">
         <v>1079.547166114824</v>
       </c>
       <c r="N32" t="n">
-        <v>1479.100942444726</v>
+        <v>1479.100942444725</v>
       </c>
       <c r="O32" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P32" t="n">
         <v>2065.836010829402</v>
@@ -6727,25 +6727,25 @@
         <v>2173.245441398655</v>
       </c>
       <c r="S32" t="n">
-        <v>1985.677698043982</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="T32" t="n">
-        <v>1985.677698043982</v>
+        <v>1956.648195332352</v>
       </c>
       <c r="U32" t="n">
-        <v>1985.677698043982</v>
+        <v>1704.119198508479</v>
       </c>
       <c r="V32" t="n">
-        <v>1985.677698043982</v>
+        <v>1379.998204963881</v>
       </c>
       <c r="W32" t="n">
-        <v>1985.677698043982</v>
+        <v>1038.688645543915</v>
       </c>
       <c r="X32" t="n">
-        <v>1985.677698043982</v>
+        <v>1038.688645543915</v>
       </c>
       <c r="Y32" t="n">
-        <v>1823.028626244404</v>
+        <v>1038.688645543915</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>790.770398266493</v>
+        <v>406.4403869735949</v>
       </c>
       <c r="C33" t="n">
-        <v>601.3581239994567</v>
+        <v>217.0281127065586</v>
       </c>
       <c r="D33" t="n">
-        <v>440.5780077604884</v>
+        <v>217.0281127065586</v>
       </c>
       <c r="E33" t="n">
-        <v>267.0148038819028</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F33" t="n">
-        <v>267.0148038819028</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G33" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H33" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I33" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J33" t="n">
-        <v>83.36822217776697</v>
+        <v>83.36822217776695</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3242064798579</v>
+        <v>278.3242064798578</v>
       </c>
       <c r="L33" t="n">
-        <v>606.7531287714135</v>
+        <v>606.7531287714133</v>
       </c>
       <c r="M33" t="n">
         <v>1034.768854311627</v>
@@ -6797,34 +6797,34 @@
         <v>1786.665794803317</v>
       </c>
       <c r="P33" t="n">
-        <v>2055.942817681023</v>
+        <v>2055.942817681022</v>
       </c>
       <c r="Q33" t="n">
         <v>2173.245441398655</v>
       </c>
       <c r="R33" t="n">
-        <v>2098.753544934451</v>
+        <v>2098.75354493445</v>
       </c>
       <c r="S33" t="n">
-        <v>2098.753544934451</v>
+        <v>1923.652767786389</v>
       </c>
       <c r="T33" t="n">
-        <v>2098.753544934451</v>
+        <v>1710.508727071508</v>
       </c>
       <c r="U33" t="n">
-        <v>1859.19449302452</v>
+        <v>1470.949675161577</v>
       </c>
       <c r="V33" t="n">
-        <v>1616.114774928154</v>
+        <v>1227.869957065211</v>
       </c>
       <c r="W33" t="n">
-        <v>1414.454938641404</v>
+        <v>958.4713877955022</v>
       </c>
       <c r="X33" t="n">
-        <v>1194.946944258101</v>
+        <v>738.9633934121986</v>
       </c>
       <c r="Y33" t="n">
-        <v>969.3062511934281</v>
+        <v>513.3227003475263</v>
       </c>
     </row>
     <row r="34">
@@ -6861,46 +6861,46 @@
         <v>43.4649088279731</v>
       </c>
       <c r="K34" t="n">
-        <v>71.80257933405355</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L34" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M34" t="n">
-        <v>263.954915982465</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N34" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O34" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P34" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q34" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R34" t="n">
-        <v>323.0273713240553</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S34" t="n">
-        <v>99.70417849073525</v>
+        <v>267.7959542221158</v>
       </c>
       <c r="T34" t="n">
-        <v>43.4649088279731</v>
+        <v>262.7995278321836</v>
       </c>
       <c r="U34" t="n">
-        <v>43.4649088279731</v>
+        <v>262.7995278321836</v>
       </c>
       <c r="V34" t="n">
-        <v>43.4649088279731</v>
+        <v>262.7995278321836</v>
       </c>
       <c r="W34" t="n">
-        <v>43.4649088279731</v>
+        <v>262.7995278321836</v>
       </c>
       <c r="X34" t="n">
-        <v>43.4649088279731</v>
+        <v>262.7995278321836</v>
       </c>
       <c r="Y34" t="n">
         <v>43.4649088279731</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1831.935881978689</v>
+        <v>831.602349698491</v>
       </c>
       <c r="C35" t="n">
-        <v>1831.935881978689</v>
+        <v>831.602349698491</v>
       </c>
       <c r="D35" t="n">
-        <v>1750.691588022245</v>
+        <v>490.4183500598776</v>
       </c>
       <c r="E35" t="n">
-        <v>1375.460363717562</v>
+        <v>490.4183500598776</v>
       </c>
       <c r="F35" t="n">
-        <v>968.1883943842154</v>
+        <v>490.4183500598776</v>
       </c>
       <c r="G35" t="n">
-        <v>546.9735054953694</v>
+        <v>69.20346117103156</v>
       </c>
       <c r="H35" t="n">
-        <v>215.4338380414387</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I35" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J35" t="n">
-        <v>121.6733836860487</v>
+        <v>121.673383686049</v>
       </c>
       <c r="K35" t="n">
-        <v>346.1526796318381</v>
+        <v>346.1526796318383</v>
       </c>
       <c r="L35" t="n">
-        <v>679.6221584998607</v>
+        <v>679.6221584998609</v>
       </c>
       <c r="M35" t="n">
         <v>1079.547166114824</v>
@@ -6955,34 +6955,34 @@
         <v>1819.478884674072</v>
       </c>
       <c r="P35" t="n">
-        <v>2065.836010829403</v>
+        <v>2065.836010829402</v>
       </c>
       <c r="Q35" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R35" t="n">
-        <v>2173.245441398656</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="S35" t="n">
-        <v>2173.245441398656</v>
+        <v>1905.287264165469</v>
       </c>
       <c r="T35" t="n">
-        <v>2173.245441398656</v>
+        <v>1905.287264165469</v>
       </c>
       <c r="U35" t="n">
-        <v>2173.245441398656</v>
+        <v>1905.287264165469</v>
       </c>
       <c r="V35" t="n">
-        <v>2173.245441398656</v>
+        <v>1581.166270620871</v>
       </c>
       <c r="W35" t="n">
-        <v>1831.935881978689</v>
+        <v>1581.166270620871</v>
       </c>
       <c r="X35" t="n">
-        <v>1831.935881978689</v>
+        <v>1217.749387494905</v>
       </c>
       <c r="Y35" t="n">
-        <v>1831.935881978689</v>
+        <v>831.602349698491</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1040.603279844105</v>
+        <v>393.3048993777653</v>
       </c>
       <c r="C36" t="n">
-        <v>851.1910055770684</v>
+        <v>203.892625110729</v>
       </c>
       <c r="D36" t="n">
-        <v>690.4108893381001</v>
+        <v>203.892625110729</v>
       </c>
       <c r="E36" t="n">
-        <v>516.8476854595145</v>
+        <v>203.892625110729</v>
       </c>
       <c r="F36" t="n">
-        <v>384.4401115754464</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G36" t="n">
-        <v>235.1849991890216</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H36" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I36" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J36" t="n">
         <v>83.36822217776697</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3242064798579</v>
+        <v>278.3242064798578</v>
       </c>
       <c r="L36" t="n">
-        <v>606.7531287714135</v>
+        <v>606.7531287714133</v>
       </c>
       <c r="M36" t="n">
         <v>1034.768854311627</v>
       </c>
       <c r="N36" t="n">
-        <v>1492.53277207323</v>
+        <v>1492.532772073229</v>
       </c>
       <c r="O36" t="n">
         <v>1855.550243024313</v>
@@ -7037,31 +7037,31 @@
         <v>2124.827265902019</v>
       </c>
       <c r="Q36" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R36" t="n">
-        <v>2173.245441398656</v>
+        <v>2098.753544934451</v>
       </c>
       <c r="S36" t="n">
-        <v>2173.245441398656</v>
+        <v>1923.65276778639</v>
       </c>
       <c r="T36" t="n">
-        <v>2173.245441398656</v>
+        <v>1769.026779028682</v>
       </c>
       <c r="U36" t="n">
-        <v>1933.686389488725</v>
+        <v>1529.467727118751</v>
       </c>
       <c r="V36" t="n">
-        <v>1933.686389488725</v>
+        <v>1286.388009022385</v>
       </c>
       <c r="W36" t="n">
-        <v>1664.287820219016</v>
+        <v>1016.989439752676</v>
       </c>
       <c r="X36" t="n">
-        <v>1444.779825835712</v>
+        <v>797.4814453693728</v>
       </c>
       <c r="Y36" t="n">
-        <v>1219.13913277104</v>
+        <v>571.8407523047003</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="C37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="D37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="E37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K37" t="n">
-        <v>1753.928873677273</v>
+        <v>71.80257933405352</v>
       </c>
       <c r="L37" t="n">
-        <v>1843.278581514956</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M37" t="n">
-        <v>1946.081210325685</v>
+        <v>263.954915982465</v>
       </c>
       <c r="N37" t="n">
-        <v>2054.455558658031</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O37" t="n">
-        <v>2132.559163885257</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P37" t="n">
-        <v>2173.245441398656</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q37" t="n">
-        <v>2173.245441398656</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R37" t="n">
-        <v>2173.245441398656</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S37" t="n">
-        <v>2173.245441398656</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T37" t="n">
-        <v>2173.245441398656</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="U37" t="n">
-        <v>1881.718523177333</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="V37" t="n">
-        <v>1725.591203171193</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="W37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="X37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="Y37" t="n">
-        <v>1725.591203171193</v>
+        <v>43.4649088279731</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1795.379542027106</v>
+        <v>791.9208777999336</v>
       </c>
       <c r="C38" t="n">
-        <v>1795.379542027106</v>
+        <v>791.9208777999336</v>
       </c>
       <c r="D38" t="n">
-        <v>1750.691588022245</v>
+        <v>450.7368781613201</v>
       </c>
       <c r="E38" t="n">
-        <v>1375.460363717562</v>
+        <v>450.7368781613201</v>
       </c>
       <c r="F38" t="n">
-        <v>968.1883943842154</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G38" t="n">
-        <v>546.9735054953694</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H38" t="n">
-        <v>215.4338380414387</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I38" t="n">
         <v>43.4649088279731</v>
@@ -7177,19 +7177,19 @@
         <v>121.6733836860489</v>
       </c>
       <c r="K38" t="n">
-        <v>346.1526796318381</v>
+        <v>346.152679631838</v>
       </c>
       <c r="L38" t="n">
-        <v>679.6221584998609</v>
+        <v>679.6221584998605</v>
       </c>
       <c r="M38" t="n">
         <v>1079.547166114824</v>
       </c>
       <c r="N38" t="n">
-        <v>1479.100942444726</v>
+        <v>1479.100942444725</v>
       </c>
       <c r="O38" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P38" t="n">
         <v>2065.836010829402</v>
@@ -7198,28 +7198,28 @@
         <v>2173.245441398655</v>
       </c>
       <c r="R38" t="n">
-        <v>2173.245441398655</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="S38" t="n">
-        <v>2173.245441398655</v>
+        <v>1905.287264165468</v>
       </c>
       <c r="T38" t="n">
-        <v>2173.245441398655</v>
+        <v>1843.498468560912</v>
       </c>
       <c r="U38" t="n">
-        <v>2173.245441398655</v>
+        <v>1843.498468560912</v>
       </c>
       <c r="V38" t="n">
-        <v>2173.245441398655</v>
+        <v>1519.377475016314</v>
       </c>
       <c r="W38" t="n">
-        <v>2173.245441398655</v>
+        <v>1178.067915596348</v>
       </c>
       <c r="X38" t="n">
-        <v>2173.245441398655</v>
+        <v>1178.067915596348</v>
       </c>
       <c r="Y38" t="n">
-        <v>2173.245441398655</v>
+        <v>791.9208777999336</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>567.2205032125632</v>
+        <v>810.0202140975296</v>
       </c>
       <c r="C39" t="n">
-        <v>377.8082289455269</v>
+        <v>810.0202140975296</v>
       </c>
       <c r="D39" t="n">
-        <v>217.0281127065587</v>
+        <v>649.2400978585613</v>
       </c>
       <c r="E39" t="n">
-        <v>43.4649088279731</v>
+        <v>544.8678278582023</v>
       </c>
       <c r="F39" t="n">
-        <v>43.4649088279731</v>
+        <v>384.4401115754464</v>
       </c>
       <c r="G39" t="n">
-        <v>43.4649088279731</v>
+        <v>235.1849991890216</v>
       </c>
       <c r="H39" t="n">
-        <v>43.4649088279731</v>
+        <v>117.759691495478</v>
       </c>
       <c r="I39" t="n">
         <v>43.4649088279731</v>
       </c>
       <c r="J39" t="n">
-        <v>83.36822217776697</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3242064798579</v>
+        <v>238.4208931300639</v>
       </c>
       <c r="L39" t="n">
-        <v>606.7531287714135</v>
+        <v>566.8498154216195</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.768854311627</v>
+        <v>994.8655409618332</v>
       </c>
       <c r="N39" t="n">
-        <v>1492.53277207323</v>
+        <v>1452.629458723436</v>
       </c>
       <c r="O39" t="n">
-        <v>1855.550243024313</v>
+        <v>1815.646929674519</v>
       </c>
       <c r="P39" t="n">
-        <v>2124.827265902019</v>
+        <v>2084.923952552225</v>
       </c>
       <c r="Q39" t="n">
         <v>2173.245441398655</v>
       </c>
       <c r="R39" t="n">
-        <v>2098.753544934451</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S39" t="n">
-        <v>1923.65276778639</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="T39" t="n">
-        <v>1710.508727071509</v>
+        <v>1960.101400683774</v>
       </c>
       <c r="U39" t="n">
-        <v>1470.949675161578</v>
+        <v>1720.542348773843</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.303612857183</v>
+        <v>1477.462630677477</v>
       </c>
       <c r="W39" t="n">
-        <v>1190.905043587474</v>
+        <v>1208.064061407768</v>
       </c>
       <c r="X39" t="n">
-        <v>971.3970492041708</v>
+        <v>988.5560670244647</v>
       </c>
       <c r="Y39" t="n">
-        <v>745.7563561394984</v>
+        <v>988.5560670244647</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="C40" t="n">
-        <v>2005.106874760299</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="D40" t="n">
-        <v>1858.457733092915</v>
+        <v>186.5721221736549</v>
       </c>
       <c r="E40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J40" t="n">
-        <v>1725.591203171192</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K40" t="n">
-        <v>1753.928873677273</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L40" t="n">
-        <v>1843.278581514955</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M40" t="n">
-        <v>1946.081210325684</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N40" t="n">
-        <v>2054.455558658031</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O40" t="n">
-        <v>2132.559163885257</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P40" t="n">
-        <v>2173.245441398655</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q40" t="n">
-        <v>2173.245441398655</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R40" t="n">
-        <v>2173.245441398655</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S40" t="n">
-        <v>2173.245441398655</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="V40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="W40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="X40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
       <c r="Y40" t="n">
-        <v>2173.245441398655</v>
+        <v>333.2212638410394</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>738.391835114242</v>
+        <v>1390.868114603995</v>
       </c>
       <c r="C41" t="n">
-        <v>384.6489084665865</v>
+        <v>1037.125187956339</v>
       </c>
       <c r="D41" t="n">
-        <v>43.46490882797311</v>
+        <v>695.9411883177261</v>
       </c>
       <c r="E41" t="n">
-        <v>43.46490882797311</v>
+        <v>695.9411883177261</v>
       </c>
       <c r="F41" t="n">
-        <v>43.46490882797311</v>
+        <v>464.6797977168191</v>
       </c>
       <c r="G41" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H41" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I41" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J41" t="n">
-        <v>121.6733836860489</v>
+        <v>121.6733836860487</v>
       </c>
       <c r="K41" t="n">
-        <v>346.1526796318381</v>
+        <v>346.1526796318379</v>
       </c>
       <c r="L41" t="n">
-        <v>679.6221584998609</v>
+        <v>679.6221584998605</v>
       </c>
       <c r="M41" t="n">
         <v>1079.547166114824</v>
       </c>
       <c r="N41" t="n">
-        <v>1479.100942444726</v>
+        <v>1479.100942444725</v>
       </c>
       <c r="O41" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P41" t="n">
-        <v>2065.836010829403</v>
+        <v>2065.836010829402</v>
       </c>
       <c r="Q41" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R41" t="n">
-        <v>2173.245441398656</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="S41" t="n">
-        <v>2173.245441398656</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="T41" t="n">
-        <v>2173.245441398656</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="U41" t="n">
-        <v>2173.245441398656</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="V41" t="n">
-        <v>2173.245441398656</v>
+        <v>1768.734013975544</v>
       </c>
       <c r="W41" t="n">
-        <v>1831.935881978689</v>
+        <v>1768.734013975544</v>
       </c>
       <c r="X41" t="n">
-        <v>1502.404772282205</v>
+        <v>1768.734013975544</v>
       </c>
       <c r="Y41" t="n">
-        <v>1116.257734485791</v>
+        <v>1768.734013975544</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1044.038355622978</v>
+        <v>845.0735271888627</v>
       </c>
       <c r="C42" t="n">
-        <v>879.2111479757561</v>
+        <v>655.6612529218264</v>
       </c>
       <c r="D42" t="n">
-        <v>718.4310317367879</v>
+        <v>494.8811366828581</v>
       </c>
       <c r="E42" t="n">
-        <v>544.8678278582023</v>
+        <v>321.3179328042726</v>
       </c>
       <c r="F42" t="n">
-        <v>384.4401115754464</v>
+        <v>160.8902165215167</v>
       </c>
       <c r="G42" t="n">
-        <v>235.1849991890216</v>
+        <v>160.8902165215167</v>
       </c>
       <c r="H42" t="n">
-        <v>117.759691495478</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I42" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J42" t="n">
-        <v>83.36822217776697</v>
+        <v>83.36822217776695</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3242064798579</v>
+        <v>278.3242064798578</v>
       </c>
       <c r="L42" t="n">
-        <v>606.7531287714135</v>
+        <v>606.7531287714133</v>
       </c>
       <c r="M42" t="n">
         <v>1034.768854311627</v>
       </c>
       <c r="N42" t="n">
-        <v>1492.53277207323</v>
+        <v>1492.532772073229</v>
       </c>
       <c r="O42" t="n">
         <v>1855.550243024313</v>
       </c>
       <c r="P42" t="n">
-        <v>2124.827265902019</v>
+        <v>2055.942817681022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="R42" t="n">
-        <v>2173.245441398656</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="S42" t="n">
-        <v>1998.144664250594</v>
+        <v>2173.245441398655</v>
       </c>
       <c r="T42" t="n">
-        <v>1998.144664250594</v>
+        <v>1960.101400683774</v>
       </c>
       <c r="U42" t="n">
-        <v>1758.585612340663</v>
+        <v>1738.156636833482</v>
       </c>
       <c r="V42" t="n">
-        <v>1758.585612340663</v>
+        <v>1738.156636833482</v>
       </c>
       <c r="W42" t="n">
-        <v>1489.187043070954</v>
+        <v>1468.758067563774</v>
       </c>
       <c r="X42" t="n">
-        <v>1269.67904868765</v>
+        <v>1249.25007318047</v>
       </c>
       <c r="Y42" t="n">
-        <v>1044.038355622978</v>
+        <v>1023.609380115798</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="C43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="D43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="E43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="F43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="I43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="J43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="K43" t="n">
-        <v>71.80257933405355</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L43" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M43" t="n">
-        <v>263.954915982465</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N43" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O43" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P43" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q43" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R43" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S43" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T43" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="U43" t="n">
-        <v>199.5922288341133</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="V43" t="n">
-        <v>43.46490882797311</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="W43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="X43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.46490882797311</v>
+        <v>43.4649088279731</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4487340224412</v>
+        <v>1177.830666949088</v>
       </c>
       <c r="C44" t="n">
-        <v>622.7058073747858</v>
+        <v>824.0877403014324</v>
       </c>
       <c r="D44" t="n">
-        <v>622.7058073747858</v>
+        <v>636.6487269302847</v>
       </c>
       <c r="E44" t="n">
-        <v>622.7058073747858</v>
+        <v>636.6487269302847</v>
       </c>
       <c r="F44" t="n">
-        <v>215.4338380414387</v>
+        <v>636.6487269302847</v>
       </c>
       <c r="G44" t="n">
         <v>215.4338380414387</v>
@@ -7648,22 +7648,22 @@
         <v>43.4649088279731</v>
       </c>
       <c r="J44" t="n">
-        <v>121.6733836860488</v>
+        <v>121.6733836860485</v>
       </c>
       <c r="K44" t="n">
-        <v>346.1526796318379</v>
+        <v>346.1526796318377</v>
       </c>
       <c r="L44" t="n">
-        <v>679.6221584998606</v>
+        <v>679.6221584998602</v>
       </c>
       <c r="M44" t="n">
         <v>1079.547166114824</v>
       </c>
       <c r="N44" t="n">
-        <v>1479.100942444726</v>
+        <v>1479.100942444725</v>
       </c>
       <c r="O44" t="n">
-        <v>1819.478884674072</v>
+        <v>1819.478884674071</v>
       </c>
       <c r="P44" t="n">
         <v>2065.836010829402</v>
@@ -7672,28 +7672,28 @@
         <v>2173.245441398655</v>
       </c>
       <c r="R44" t="n">
-        <v>2144.62666061138</v>
+        <v>2092.855007520142</v>
       </c>
       <c r="S44" t="n">
-        <v>1957.058917256706</v>
+        <v>1905.287264165468</v>
       </c>
       <c r="T44" t="n">
-        <v>1740.461671190404</v>
+        <v>1905.287264165468</v>
       </c>
       <c r="U44" t="n">
-        <v>1740.461671190404</v>
+        <v>1905.287264165468</v>
       </c>
       <c r="V44" t="n">
-        <v>1740.461671190404</v>
+        <v>1905.287264165468</v>
       </c>
       <c r="W44" t="n">
-        <v>1740.461671190404</v>
+        <v>1563.977704745502</v>
       </c>
       <c r="X44" t="n">
-        <v>1740.461671190404</v>
+        <v>1563.977704745502</v>
       </c>
       <c r="Y44" t="n">
-        <v>1354.31463339399</v>
+        <v>1177.830666949088</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>994.3286395752876</v>
+        <v>727.6482194953192</v>
       </c>
       <c r="C45" t="n">
-        <v>804.9163653082513</v>
+        <v>538.2359452282828</v>
       </c>
       <c r="D45" t="n">
-        <v>644.1362490692831</v>
+        <v>377.4558289893146</v>
       </c>
       <c r="E45" t="n">
-        <v>470.5730451906975</v>
+        <v>203.892625110729</v>
       </c>
       <c r="F45" t="n">
-        <v>310.1453289079416</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="G45" t="n">
-        <v>160.8902165215167</v>
+        <v>43.4649088279731</v>
       </c>
       <c r="H45" t="n">
         <v>43.4649088279731</v>
@@ -7730,7 +7730,7 @@
         <v>43.4649088279731</v>
       </c>
       <c r="K45" t="n">
-        <v>238.420893130064</v>
+        <v>238.4208931300639</v>
       </c>
       <c r="L45" t="n">
         <v>566.8498154216195</v>
@@ -7739,13 +7739,13 @@
         <v>994.8655409618332</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.648323852233</v>
+        <v>1452.629458723436</v>
       </c>
       <c r="O45" t="n">
-        <v>1786.665794803317</v>
+        <v>1815.646929674519</v>
       </c>
       <c r="P45" t="n">
-        <v>2055.942817681023</v>
+        <v>2084.923952552225</v>
       </c>
       <c r="Q45" t="n">
         <v>2173.245441398655</v>
@@ -7754,25 +7754,25 @@
         <v>2173.245441398655</v>
       </c>
       <c r="S45" t="n">
-        <v>2173.245441398655</v>
+        <v>1998.144664250593</v>
       </c>
       <c r="T45" t="n">
-        <v>2173.245441398655</v>
+        <v>1785.000623535712</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.686389488724</v>
+        <v>1545.441571625781</v>
       </c>
       <c r="V45" t="n">
-        <v>1690.606671392358</v>
+        <v>1545.441571625781</v>
       </c>
       <c r="W45" t="n">
-        <v>1421.20810212265</v>
+        <v>1276.043002356073</v>
       </c>
       <c r="X45" t="n">
-        <v>1398.505185566895</v>
+        <v>1131.824765486927</v>
       </c>
       <c r="Y45" t="n">
-        <v>1172.864492502223</v>
+        <v>906.1840724222543</v>
       </c>
     </row>
     <row r="46">
@@ -7809,37 +7809,37 @@
         <v>43.4649088279731</v>
       </c>
       <c r="K46" t="n">
-        <v>71.80257933405355</v>
+        <v>71.8025793340535</v>
       </c>
       <c r="L46" t="n">
-        <v>161.152287171736</v>
+        <v>161.1522871717359</v>
       </c>
       <c r="M46" t="n">
-        <v>263.954915982465</v>
+        <v>263.9549159824649</v>
       </c>
       <c r="N46" t="n">
-        <v>372.3292643148114</v>
+        <v>372.3292643148113</v>
       </c>
       <c r="O46" t="n">
-        <v>450.4328695420378</v>
+        <v>450.4328695420376</v>
       </c>
       <c r="P46" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="Q46" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="R46" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="S46" t="n">
-        <v>491.1191470554361</v>
+        <v>491.1191470554359</v>
       </c>
       <c r="T46" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="U46" t="n">
-        <v>491.1191470554361</v>
+        <v>336.7080473020492</v>
       </c>
       <c r="V46" t="n">
         <v>336.7080473020492</v>
@@ -8771,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>106.3027797027305</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>195.1473992165645</v>
+        <v>260.2180930979853</v>
       </c>
       <c r="N12" t="n">
-        <v>242.6112929542804</v>
+        <v>242.6112929542805</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>37.01580605976532</v>
+        <v>37.01580605976537</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.2606715564212</v>
+        <v>86.26067155642123</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>61.25115537459047</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>260.2180930979852</v>
+        <v>255.4003065297164</v>
       </c>
       <c r="N15" t="n">
-        <v>197.1100521255976</v>
+        <v>242.6112929542805</v>
       </c>
       <c r="O15" t="n">
-        <v>16.43585092325989</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>37.01580605976537</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>120.6685843443147</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,13 +9254,13 @@
         <v>269.9708882526448</v>
       </c>
       <c r="N18" t="n">
-        <v>24.49492432923299</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q18" t="n">
         <v>81.213011969896</v>
@@ -9482,13 +9482,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>54.865789686125</v>
+        <v>65.75151386138053</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>158.8745908719188</v>
+        <v>269.9708882526448</v>
       </c>
       <c r="N21" t="n">
         <v>252.098905607985</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.213011969896</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>41.40061377958102</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>142.0995999768762</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>66.5498317245512</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>41.40061377958104</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>142.0995999768754</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9968,7 +9968,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>185.6425321630417</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>41.40061377958104</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>142.0995999768754</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0336078463436</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0336078463435</v>
+        <v>241.0336078463434</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.54983172455164</v>
+        <v>66.5498317245512</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>41.40061377958104</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>66.54983172455117</v>
+        <v>106.8562088455545</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>206.3638740786793</v>
+        <v>136.7836233503999</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.54983172455162</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>41.40061377958102</v>
+        <v>41.40061377958104</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>281.3399849673475</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>106.8562088455545</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -22810,7 +22810,7 @@
         <v>102.1633490996273</v>
       </c>
       <c r="K5" t="n">
-        <v>44.76782608393461</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>327.8774293140602</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>116.9020927982147</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>148.622430376592</v>
       </c>
       <c r="G11" t="n">
         <v>418.0074221942822</v>
@@ -23278,10 +23278,10 @@
         <v>338.5134723020187</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J11" t="n">
-        <v>6.27268593796019</v>
+        <v>6.272685937960233</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S11" t="n">
-        <v>41.2170402162959</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -23345,16 +23345,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>66.20866113316428</v>
       </c>
       <c r="H12" t="n">
-        <v>5.429231118800459</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>183.3345687810624</v>
       </c>
       <c r="T12" t="n">
-        <v>213.1793135669336</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1988266779785</v>
@@ -23399,7 +23399,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>12.12776431359009</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -23442,7 +23442,7 @@
         <v>93.89352159128106</v>
       </c>
       <c r="K13" t="n">
-        <v>23.7352676571269</v>
+        <v>23.73526765712693</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>13.40873545256758</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>96.01294866538852</v>
       </c>
       <c r="R13" t="n">
-        <v>186.1823472250113</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S13" t="n">
         <v>228.9438374938711</v>
@@ -23478,7 +23478,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>180.3969370482905</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23497,13 +23497,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>95.62867811775732</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>260.4696836692228</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
@@ -23548,22 +23548,22 @@
         <v>208.5862614242999</v>
       </c>
       <c r="T14" t="n">
-        <v>218.8292699112955</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0840814311804</v>
       </c>
       <c r="V14" t="n">
-        <v>66.30296434573054</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>83.31964456234542</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>105.2058950312847</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.0238883781624</v>
+        <v>127.7087481550284</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>78.44058028555567</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -23588,7 +23588,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.3001136271938</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>121.4426787697765</v>
@@ -23597,7 +23597,7 @@
         <v>92.05966844771966</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10.48053290778767</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>107.1223778230184</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>183.3345687810624</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U15" t="n">
         <v>237.1988266779785</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>205.953160840638</v>
       </c>
       <c r="W15" t="n">
-        <v>12.12776431359012</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.89352159128106</v>
       </c>
       <c r="K16" t="n">
-        <v>23.7352676571269</v>
+        <v>23.73526765712693</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>13.40873545256758</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>96.01294866538852</v>
       </c>
       <c r="R16" t="n">
-        <v>186.1823472250113</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S16" t="n">
         <v>228.9438374938711</v>
@@ -23712,7 +23712,7 @@
         <v>288.6362308124707</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>135.1952451434051</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23743,16 +23743,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>128.8502806894433</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>143.5845471662975</v>
       </c>
       <c r="H17" t="n">
-        <v>63.40761273612709</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5408091104314</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>206.9021266852166</v>
@@ -23788,13 +23788,13 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>193.0168065454913</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>63.54749487519672</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>50.86946099560423</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -23825,10 +23825,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>138.5222302942047</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I18" t="n">
         <v>90.69820171619743</v>
@@ -23861,7 +23861,7 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
         <v>213.0199265699567</v>
@@ -23898,7 +23898,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>141.676141212225</v>
+        <v>12.27366792031509</v>
       </c>
       <c r="F19" t="n">
         <v>138.9268822184467</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>160.9082337974254</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.73827142726316</v>
+        <v>338.5736546946804</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -23980,16 +23980,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>128.8502806894433</v>
       </c>
       <c r="G20" t="n">
-        <v>417.9335161168677</v>
+        <v>143.5845471662975</v>
       </c>
       <c r="H20" t="n">
         <v>337.7565816866972</v>
       </c>
       <c r="I20" t="n">
-        <v>206.1329861685091</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>46.53081465858185</v>
       </c>
       <c r="W20" t="n">
-        <v>96.24989197410477</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>85.43374534413596</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>107.9365984678797</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>95.5436075791682</v>
       </c>
       <c r="G21" t="n">
         <v>148.2605703896413</v>
@@ -24071,7 +24071,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.08746546465633</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>213.0199265699567</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>37.05470768006245</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
@@ -24186,7 +24186,7 @@
         <v>288.6344225367242</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>115.70654189254</v>
       </c>
       <c r="W22" t="n">
         <v>290.3107070893353</v>
@@ -24208,22 +24208,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>173.2891560209302</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>328.2242707793913</v>
       </c>
       <c r="I23" t="n">
         <v>170.249239921331</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.58652953972785</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S23" t="n">
-        <v>185.6920659211268</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>110.1610088117445</v>
+        <v>214.4312736056394</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>65.48750640933753</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.028391365024831</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S24" t="n">
-        <v>173.3497693765811</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1634613908316</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24387,7 +24387,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J25" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R25" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S25" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T25" t="n">
         <v>220.2437706429359</v>
@@ -24423,16 +24423,16 @@
         <v>288.6116490391096</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>92.24202642859703</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.0376786059205</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>300.6382791272327</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.2242707793913</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>170.249239921331</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S26" t="n">
-        <v>185.6920659211268</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T26" t="n">
-        <v>75.09406670587185</v>
+        <v>214.4312736056394</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>63.059569986361</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.46811074976424</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T27" t="n">
-        <v>211.0126003077321</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24624,7 +24624,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J28" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R28" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S28" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T28" t="n">
         <v>220.2437706429359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>135.7446602832568</v>
       </c>
       <c r="V28" t="n">
-        <v>90.54296837837109</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.0027399999576</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>33.7496642848177</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.4312736056394</v>
       </c>
       <c r="U29" t="n">
-        <v>83.88666740220897</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24764,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.0126003077321</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1634613908316</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>163.1230481968428</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.0092329359442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,13 +24840,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>10.13827658971962</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24861,7 +24861,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J31" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R31" t="n">
-        <v>166.410857974067</v>
+        <v>13.54386921821421</v>
       </c>
       <c r="S31" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T31" t="n">
         <v>220.2437706429359</v>
@@ -24900,7 +24900,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>342.9518898547472</v>
       </c>
       <c r="G32" t="n">
-        <v>417.0027399999576</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.2242707793913</v>
       </c>
       <c r="I32" t="n">
-        <v>170.249239921331</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.58652953972785</v>
+        <v>79.58652953972788</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T32" t="n">
-        <v>214.4312736056394</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0037068556345</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.2629863368684</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>70.93700415747368</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7625612625606</v>
       </c>
       <c r="H33" t="n">
         <v>116.2510546166082</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.0126003077321</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>67.0613456531288</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J34" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>166.410857974067</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>164.5668936768014</v>
+        <v>215.2973085169031</v>
       </c>
       <c r="U34" t="n">
         <v>288.6116490391096</v>
@@ -25143,7 +25143,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>257.340308625348</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>302.7431039597634</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>170.249239921331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.58652953972785</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.6920659211268</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>214.4312736056394</v>
@@ -25213,16 +25213,16 @@
         <v>250.0037068556345</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>27.73994097470089</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.7625612625606</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>116.2510546166082</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.74697749956199</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.0126003077321</v>
+        <v>57.93287143760165</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J37" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R37" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S37" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T37" t="n">
         <v>220.2437706429359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>135.7446602832567</v>
       </c>
       <c r="V37" t="n">
-        <v>90.54296837837126</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>293.5310851774151</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.0027399999576</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.2242707793913</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>170.249239921331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.58652953972785</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.6920659211268</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.4312736056394</v>
+        <v>153.2603659571286</v>
       </c>
       <c r="U38" t="n">
         <v>250.0037068556345</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>68.49902453944429</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7625612625606</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>116.2510546166082</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>73.55183484082983</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>230.1093192340515</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25551,13 +25551,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>10.13827658971991</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25572,7 +25572,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J40" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R40" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S40" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T40" t="n">
-        <v>220.2437706429359</v>
+        <v>63.92486626068347</v>
       </c>
       <c r="U40" t="n">
         <v>288.6116490391096</v>
@@ -25639,10 +25639,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>174.2504729451156</v>
       </c>
       <c r="G41" t="n">
-        <v>417.0027399999576</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>328.2242707793913</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.58652953972785</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.6920659211268</v>
+        <v>185.6920659211269</v>
       </c>
       <c r="T41" t="n">
         <v>214.4312736056394</v>
@@ -25687,16 +25687,16 @@
         <v>250.0037068556345</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>33.54691569518673</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>24.33921595361622</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.7625612625606</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>173.3497693765812</v>
       </c>
       <c r="T42" t="n">
-        <v>211.0126003077321</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>17.4381451790432</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25809,7 +25809,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J43" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R43" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S43" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T43" t="n">
-        <v>220.2437706429359</v>
+        <v>67.3767818870831</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6116490391096</v>
       </c>
       <c r="V43" t="n">
-        <v>90.54296837837111</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>152.2075364047911</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.0027399999576</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>328.2242707793913</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.25393656032537</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.4312736056394</v>
       </c>
       <c r="U44" t="n">
         <v>250.0037068556345</v>
@@ -25927,7 +25927,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.7625612625606</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>116.2510546166082</v>
       </c>
       <c r="I45" t="n">
-        <v>73.55183484082983</v>
+        <v>73.55183484082984</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>73.74697749956199</v>
+        <v>73.74697749956201</v>
       </c>
       <c r="S45" t="n">
-        <v>173.3497693765811</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.0126003077321</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>194.8370270492737</v>
+        <v>74.53685993901627</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>140.0937296278874</v>
       </c>
       <c r="J46" t="n">
-        <v>62.03144635301666</v>
+        <v>62.03144635301668</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.27582959381164</v>
+        <v>58.27582959381165</v>
       </c>
       <c r="R46" t="n">
         <v>166.410857974067</v>
       </c>
       <c r="S46" t="n">
-        <v>221.0899609049868</v>
+        <v>221.0899609049869</v>
       </c>
       <c r="T46" t="n">
-        <v>220.2437706429359</v>
+        <v>67.3767818870831</v>
       </c>
       <c r="U46" t="n">
         <v>288.6116490391096</v>
       </c>
       <c r="V46" t="n">
-        <v>92.24202642859683</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>574027.7202968331</v>
+        <v>574027.7202968332</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>574027.720296833</v>
+        <v>574027.7202968332</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800222.4848965484</v>
+        <v>800222.4848965486</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800222.4848965483</v>
+        <v>800222.4848965481</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800222.4848965481</v>
+        <v>800222.4848965483</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>800222.4848965486</v>
+        <v>800222.4848965484</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79327.5467043001</v>
+        <v>79327.54670430011</v>
       </c>
       <c r="C2" t="n">
-        <v>83116.14251207274</v>
+        <v>83116.14251207275</v>
       </c>
       <c r="D2" t="n">
         <v>83116.14251207275</v>
@@ -26328,7 +26328,7 @@
         <v>150657.2150372185</v>
       </c>
       <c r="G2" t="n">
-        <v>155128.5651189533</v>
+        <v>155128.5651189534</v>
       </c>
       <c r="H2" t="n">
         <v>155128.5651189534</v>
@@ -26343,19 +26343,19 @@
         <v>211971.7230926446</v>
       </c>
       <c r="L2" t="n">
-        <v>211971.7230926445</v>
+        <v>211971.7230926447</v>
       </c>
       <c r="M2" t="n">
-        <v>211971.7230926446</v>
+        <v>211971.7230926447</v>
       </c>
       <c r="N2" t="n">
         <v>211971.7230926446</v>
       </c>
       <c r="O2" t="n">
-        <v>211971.7230926446</v>
+        <v>211971.7230926447</v>
       </c>
       <c r="P2" t="n">
-        <v>211971.7230926446</v>
+        <v>211971.7230926447</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301798.3163643802</v>
+        <v>301798.3163643801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19712.67698168342</v>
+        <v>19712.6769816835</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>245807.1449012008</v>
+        <v>245807.1449012007</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4758.187594362022</v>
+        <v>4758.187594362014</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="C4" t="n">
         <v>20527.96160932765</v>
@@ -26490,28 +26490,28 @@
         <v>23791.68139550617</v>
       </c>
       <c r="I5" t="n">
-        <v>45191.96098054553</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="J5" t="n">
-        <v>45191.96098054552</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="K5" t="n">
-        <v>45191.96098054552</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="L5" t="n">
-        <v>45191.96098054552</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="M5" t="n">
-        <v>45191.96098054553</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="N5" t="n">
-        <v>45191.96098054552</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="O5" t="n">
-        <v>45191.96098054553</v>
+        <v>45191.96098054551</v>
       </c>
       <c r="P5" t="n">
-        <v>45191.96098054552</v>
+        <v>45191.96098054551</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24545.93424982008</v>
+        <v>7741.473641976696</v>
       </c>
       <c r="C6" t="n">
-        <v>3988.983775726272</v>
+        <v>-12562.9037782656</v>
       </c>
       <c r="D6" t="n">
-        <v>28376.73314462252</v>
+        <v>11824.84559063064</v>
       </c>
       <c r="E6" t="n">
-        <v>-195136.2988102817</v>
+        <v>-207185.4481959304</v>
       </c>
       <c r="F6" t="n">
-        <v>106662.0175540985</v>
+        <v>94612.86816844964</v>
       </c>
       <c r="G6" t="n">
-        <v>89713.65499157782</v>
+        <v>77962.595611378</v>
       </c>
       <c r="H6" t="n">
-        <v>109426.3319732613</v>
+        <v>97675.27259306144</v>
       </c>
       <c r="I6" t="n">
-        <v>-102430.1813863938</v>
+        <v>-110391.6969016807</v>
       </c>
       <c r="J6" t="n">
-        <v>143376.963514807</v>
+        <v>135415.44799952</v>
       </c>
       <c r="K6" t="n">
-        <v>143376.963514807</v>
+        <v>135415.44799952</v>
       </c>
       <c r="L6" t="n">
-        <v>143376.963514807</v>
+        <v>135415.44799952</v>
       </c>
       <c r="M6" t="n">
-        <v>79935.40184708533</v>
+        <v>71973.88633179832</v>
       </c>
       <c r="N6" t="n">
-        <v>143376.963514807</v>
+        <v>135415.44799952</v>
       </c>
       <c r="O6" t="n">
-        <v>138618.775920445</v>
+        <v>130657.260405158</v>
       </c>
       <c r="P6" t="n">
-        <v>143376.9635148071</v>
+        <v>135415.44799952</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>26.78200725332938</v>
       </c>
       <c r="E3" t="n">
-        <v>307.82063770697</v>
+        <v>307.8206377069699</v>
       </c>
       <c r="F3" t="n">
-        <v>307.82063770697</v>
+        <v>307.8206377069699</v>
       </c>
       <c r="G3" t="n">
         <v>326.2047744638306</v>
@@ -26758,28 +26758,28 @@
         <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="J3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="K3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="L3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="M3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="N3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
       <c r="P3" t="n">
-        <v>557.7353335452275</v>
+        <v>557.7353335452274</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>274.3489689505702</v>
       </c>
       <c r="I4" t="n">
-        <v>543.3113603496639</v>
+        <v>543.3113603496638</v>
       </c>
       <c r="J4" t="n">
+        <v>543.3113603496637</v>
+      </c>
+      <c r="K4" t="n">
+        <v>543.3113603496637</v>
+      </c>
+      <c r="L4" t="n">
+        <v>543.3113603496637</v>
+      </c>
+      <c r="M4" t="n">
         <v>543.3113603496638</v>
       </c>
-      <c r="K4" t="n">
-        <v>543.3113603496638</v>
-      </c>
-      <c r="L4" t="n">
-        <v>543.3113603496638</v>
-      </c>
-      <c r="M4" t="n">
-        <v>543.3113603496639</v>
-      </c>
       <c r="N4" t="n">
-        <v>543.3113603496638</v>
+        <v>543.3113603496637</v>
       </c>
       <c r="O4" t="n">
-        <v>543.3113603496639</v>
+        <v>543.3113603496637</v>
       </c>
       <c r="P4" t="n">
-        <v>543.3113603496638</v>
+        <v>543.3113603496637</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>281.0386304536407</v>
+        <v>281.0386304536406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.38413675686058</v>
+        <v>18.3841367568607</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>231.5305590813969</v>
+        <v>231.5305590813967</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.7721496871487</v>
+        <v>19.77214968714867</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>268.9623913990937</v>
+        <v>268.9623913990936</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7721496871487</v>
+        <v>19.77214968714867</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7721496871487</v>
+        <v>19.77214968714867</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31311,10 +31311,10 @@
         <v>11.62675572172049</v>
       </c>
       <c r="R5" t="n">
-        <v>6.763197037696289</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S5" t="n">
-        <v>2.453447197126606</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T5" t="n">
         <v>0.4713094944781883</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H6" t="n">
         <v>0.55635830162105</v>
@@ -31387,7 +31387,7 @@
         <v>11.00033048863637</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.353429614159419</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R6" t="n">
         <v>3.576661270548404</v>
@@ -31472,7 +31472,7 @@
         <v>2.171537834015854</v>
       </c>
       <c r="S7" t="n">
-        <v>0.841657506633318</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T7" t="n">
         <v>0.2063531706404066</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.237469900329527</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H11" t="n">
         <v>12.67323861674977</v>
       </c>
       <c r="I11" t="n">
-        <v>47.70755833245413</v>
+        <v>47.70755833245411</v>
       </c>
       <c r="J11" t="n">
-        <v>105.0287109530933</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K11" t="n">
-        <v>157.4108118340422</v>
+        <v>157.4108118340421</v>
       </c>
       <c r="L11" t="n">
-        <v>195.282031296252</v>
+        <v>195.2820312962519</v>
       </c>
       <c r="M11" t="n">
-        <v>217.2888866362372</v>
+        <v>217.2888866362371</v>
       </c>
       <c r="N11" t="n">
-        <v>220.8048479905485</v>
+        <v>220.8048479905484</v>
       </c>
       <c r="O11" t="n">
-        <v>208.4997566691467</v>
+        <v>208.4997566691466</v>
       </c>
       <c r="P11" t="n">
-        <v>177.9497185047615</v>
+        <v>177.9497185047614</v>
       </c>
       <c r="Q11" t="n">
         <v>133.6328276992103</v>
       </c>
       <c r="R11" t="n">
-        <v>77.73321862657471</v>
+        <v>77.73321862657468</v>
       </c>
       <c r="S11" t="n">
-        <v>28.19884535375912</v>
+        <v>28.19884535375911</v>
       </c>
       <c r="T11" t="n">
-        <v>5.417024488692507</v>
+        <v>5.417024488692505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09899759202636213</v>
+        <v>0.09899759202636209</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6621047678980111</v>
+        <v>0.6621047678980109</v>
       </c>
       <c r="H12" t="n">
-        <v>6.394538153120266</v>
+        <v>6.394538153120263</v>
       </c>
       <c r="I12" t="n">
         <v>22.79615099999731</v>
       </c>
       <c r="J12" t="n">
-        <v>62.55438072496078</v>
+        <v>62.55438072496076</v>
       </c>
       <c r="K12" t="n">
         <v>106.9154001741275</v>
       </c>
       <c r="L12" t="n">
-        <v>143.7609497139958</v>
+        <v>143.7609497139957</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7622475502987</v>
+        <v>167.7622475502986</v>
       </c>
       <c r="N12" t="n">
-        <v>172.2024150508077</v>
+        <v>172.2024150508076</v>
       </c>
       <c r="O12" t="n">
-        <v>157.5315672989623</v>
+        <v>157.5315672989622</v>
       </c>
       <c r="P12" t="n">
-        <v>126.4329709857176</v>
+        <v>126.4329709857175</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.51709282852507</v>
+        <v>84.51709282852504</v>
       </c>
       <c r="R12" t="n">
-        <v>41.10857497528179</v>
+        <v>41.10857497528178</v>
       </c>
       <c r="S12" t="n">
         <v>12.29830566687752</v>
       </c>
       <c r="T12" t="n">
-        <v>2.668746849553824</v>
+        <v>2.668746849553823</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04355952420381654</v>
+        <v>0.04355952420381652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5550863958650278</v>
+        <v>0.5550863958650277</v>
       </c>
       <c r="H13" t="n">
-        <v>4.935222683236343</v>
+        <v>4.935222683236341</v>
       </c>
       <c r="I13" t="n">
-        <v>16.69296179565012</v>
+        <v>16.69296179565011</v>
       </c>
       <c r="J13" t="n">
-        <v>39.24460818765747</v>
+        <v>39.24460818765746</v>
       </c>
       <c r="K13" t="n">
-        <v>64.49094671959141</v>
+        <v>64.49094671959138</v>
       </c>
       <c r="L13" t="n">
-        <v>82.52620834524244</v>
+        <v>82.52620834524241</v>
       </c>
       <c r="M13" t="n">
-        <v>87.01231567182431</v>
+        <v>87.01231567182428</v>
       </c>
       <c r="N13" t="n">
-        <v>84.94335728723655</v>
+        <v>84.94335728723652</v>
       </c>
       <c r="O13" t="n">
-        <v>78.45893893554052</v>
+        <v>78.45893893554049</v>
       </c>
       <c r="P13" t="n">
-        <v>67.1351764598939</v>
+        <v>67.13517645989387</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.48091629375248</v>
+        <v>46.48091629375246</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95870285407661</v>
+        <v>24.9587028540766</v>
       </c>
       <c r="S13" t="n">
-        <v>9.67364200793871</v>
+        <v>9.673642007938707</v>
       </c>
       <c r="T13" t="n">
         <v>2.371732782332391</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0302774397744561</v>
+        <v>0.03027743977445609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.237469900329527</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H14" t="n">
         <v>12.67323861674977</v>
       </c>
       <c r="I14" t="n">
-        <v>47.70755833245413</v>
+        <v>47.70755833245411</v>
       </c>
       <c r="J14" t="n">
-        <v>105.0287109530933</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K14" t="n">
-        <v>157.4108118340422</v>
+        <v>157.4108118340421</v>
       </c>
       <c r="L14" t="n">
-        <v>195.282031296252</v>
+        <v>195.2820312962519</v>
       </c>
       <c r="M14" t="n">
-        <v>217.2888866362372</v>
+        <v>217.2888866362371</v>
       </c>
       <c r="N14" t="n">
-        <v>220.8048479905485</v>
+        <v>220.8048479905484</v>
       </c>
       <c r="O14" t="n">
-        <v>208.4997566691467</v>
+        <v>208.4997566691466</v>
       </c>
       <c r="P14" t="n">
-        <v>177.9497185047615</v>
+        <v>177.9497185047614</v>
       </c>
       <c r="Q14" t="n">
         <v>133.6328276992103</v>
       </c>
       <c r="R14" t="n">
-        <v>77.73321862657471</v>
+        <v>77.73321862657468</v>
       </c>
       <c r="S14" t="n">
-        <v>28.19884535375912</v>
+        <v>28.19884535375911</v>
       </c>
       <c r="T14" t="n">
-        <v>5.417024488692507</v>
+        <v>5.417024488692505</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09899759202636213</v>
+        <v>0.09899759202636209</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6621047678980111</v>
+        <v>0.6621047678980109</v>
       </c>
       <c r="H15" t="n">
-        <v>6.394538153120266</v>
+        <v>6.394538153120263</v>
       </c>
       <c r="I15" t="n">
         <v>22.79615099999731</v>
       </c>
       <c r="J15" t="n">
-        <v>62.55438072496078</v>
+        <v>62.55438072496076</v>
       </c>
       <c r="K15" t="n">
         <v>106.9154001741275</v>
       </c>
       <c r="L15" t="n">
-        <v>143.7609497139958</v>
+        <v>143.7609497139957</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7622475502987</v>
+        <v>167.7622475502986</v>
       </c>
       <c r="N15" t="n">
-        <v>172.2024150508077</v>
+        <v>172.2024150508076</v>
       </c>
       <c r="O15" t="n">
-        <v>157.5315672989623</v>
+        <v>157.5315672989622</v>
       </c>
       <c r="P15" t="n">
-        <v>126.4329709857176</v>
+        <v>126.4329709857175</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.51709282852507</v>
+        <v>84.51709282852504</v>
       </c>
       <c r="R15" t="n">
-        <v>41.10857497528179</v>
+        <v>41.10857497528178</v>
       </c>
       <c r="S15" t="n">
         <v>12.29830566687752</v>
       </c>
       <c r="T15" t="n">
-        <v>2.668746849553824</v>
+        <v>2.668746849553823</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04355952420381654</v>
+        <v>0.04355952420381652</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5550863958650278</v>
+        <v>0.5550863958650277</v>
       </c>
       <c r="H16" t="n">
-        <v>4.935222683236343</v>
+        <v>4.935222683236341</v>
       </c>
       <c r="I16" t="n">
-        <v>16.69296179565012</v>
+        <v>16.69296179565011</v>
       </c>
       <c r="J16" t="n">
-        <v>39.24460818765747</v>
+        <v>39.24460818765746</v>
       </c>
       <c r="K16" t="n">
-        <v>64.49094671959141</v>
+        <v>64.49094671959138</v>
       </c>
       <c r="L16" t="n">
-        <v>82.52620834524244</v>
+        <v>82.52620834524241</v>
       </c>
       <c r="M16" t="n">
-        <v>87.01231567182431</v>
+        <v>87.01231567182428</v>
       </c>
       <c r="N16" t="n">
-        <v>84.94335728723655</v>
+        <v>84.94335728723652</v>
       </c>
       <c r="O16" t="n">
-        <v>78.45893893554052</v>
+        <v>78.45893893554049</v>
       </c>
       <c r="P16" t="n">
-        <v>67.1351764598939</v>
+        <v>67.13517645989387</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.48091629375248</v>
+        <v>46.48091629375246</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95870285407661</v>
+        <v>24.9587028540766</v>
       </c>
       <c r="S16" t="n">
-        <v>9.67364200793871</v>
+        <v>9.673642007938707</v>
       </c>
       <c r="T16" t="n">
         <v>2.371732782332391</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0302774397744561</v>
+        <v>0.03027743977445609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I23" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J23" t="n">
         <v>190.2998563436553</v>
@@ -32715,31 +32715,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L23" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M23" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N23" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O23" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P23" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R23" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S23" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T23" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U23" t="n">
         <v>0.1793721675723343</v>
@@ -32782,7 +32782,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H24" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I24" t="n">
         <v>41.30398460688713</v>
@@ -32791,37 +32791,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K24" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L24" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M24" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N24" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O24" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P24" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q24" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R24" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S24" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T24" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H25" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I25" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J25" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K25" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L25" t="n">
         <v>149.5279286032566</v>
@@ -32879,7 +32879,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N25" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O25" t="n">
         <v>142.1585076387082</v>
@@ -32888,19 +32888,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R25" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S25" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T25" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I26" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J26" t="n">
         <v>190.2998563436553</v>
@@ -32952,31 +32952,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L26" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M26" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N26" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O26" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P26" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q26" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R26" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S26" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T26" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U26" t="n">
         <v>0.1793721675723343</v>
@@ -33019,7 +33019,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H27" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I27" t="n">
         <v>41.30398460688713</v>
@@ -33028,37 +33028,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K27" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L27" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M27" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N27" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O27" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P27" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q27" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R27" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S27" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T27" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H28" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I28" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J28" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K28" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L28" t="n">
         <v>149.5279286032566</v>
@@ -33116,7 +33116,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N28" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O28" t="n">
         <v>142.1585076387082</v>
@@ -33125,19 +33125,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R28" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S28" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T28" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I29" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J29" t="n">
         <v>190.2998563436553</v>
@@ -33189,31 +33189,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L29" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M29" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N29" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O29" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P29" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q29" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R29" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S29" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T29" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U29" t="n">
         <v>0.1793721675723343</v>
@@ -33256,7 +33256,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H30" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I30" t="n">
         <v>41.30398460688713</v>
@@ -33265,37 +33265,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K30" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L30" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M30" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N30" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O30" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P30" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q30" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R30" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S30" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T30" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H31" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I31" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J31" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K31" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L31" t="n">
         <v>149.5279286032566</v>
@@ -33353,7 +33353,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N31" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O31" t="n">
         <v>142.1585076387082</v>
@@ -33362,19 +33362,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R31" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S31" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T31" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I32" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J32" t="n">
         <v>190.2998563436553</v>
@@ -33426,31 +33426,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L32" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M32" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N32" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O32" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P32" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q32" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R32" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S32" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T32" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U32" t="n">
         <v>0.1793721675723343</v>
@@ -33493,7 +33493,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H33" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I33" t="n">
         <v>41.30398460688713</v>
@@ -33502,37 +33502,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K33" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L33" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M33" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N33" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O33" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P33" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q33" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R33" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S33" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T33" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H34" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I34" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J34" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K34" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L34" t="n">
         <v>149.5279286032566</v>
@@ -33590,7 +33590,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N34" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O34" t="n">
         <v>142.1585076387082</v>
@@ -33599,19 +33599,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R34" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S34" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T34" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I35" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J35" t="n">
         <v>190.2998563436553</v>
@@ -33663,31 +33663,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L35" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M35" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N35" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O35" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P35" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R35" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S35" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T35" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U35" t="n">
         <v>0.1793721675723343</v>
@@ -33730,7 +33730,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H36" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I36" t="n">
         <v>41.30398460688713</v>
@@ -33739,37 +33739,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K36" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L36" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M36" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N36" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O36" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P36" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q36" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R36" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S36" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T36" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H37" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I37" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J37" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K37" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L37" t="n">
         <v>149.5279286032566</v>
@@ -33827,7 +33827,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N37" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O37" t="n">
         <v>142.1585076387082</v>
@@ -33836,19 +33836,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R37" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S37" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T37" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I38" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J38" t="n">
         <v>190.2998563436553</v>
@@ -33900,31 +33900,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L38" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M38" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N38" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O38" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P38" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q38" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R38" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S38" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T38" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U38" t="n">
         <v>0.1793721675723343</v>
@@ -33967,7 +33967,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H39" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I39" t="n">
         <v>41.30398460688713</v>
@@ -33976,37 +33976,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K39" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L39" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M39" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N39" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O39" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P39" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q39" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R39" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S39" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T39" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H40" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I40" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J40" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K40" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L40" t="n">
         <v>149.5279286032566</v>
@@ -34064,7 +34064,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N40" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O40" t="n">
         <v>142.1585076387082</v>
@@ -34073,19 +34073,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R40" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S40" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T40" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I41" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J41" t="n">
         <v>190.2998563436553</v>
@@ -34137,31 +34137,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L41" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M41" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N41" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O41" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P41" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q41" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R41" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S41" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T41" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U41" t="n">
         <v>0.1793721675723343</v>
@@ -34204,7 +34204,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H42" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I42" t="n">
         <v>41.30398460688713</v>
@@ -34213,37 +34213,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K42" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L42" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M42" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N42" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O42" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P42" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q42" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R42" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S42" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T42" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H43" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I43" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J43" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K43" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L43" t="n">
         <v>149.5279286032566</v>
@@ -34301,7 +34301,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N43" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O43" t="n">
         <v>142.1585076387082</v>
@@ -34310,19 +34310,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R43" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S43" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T43" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>22.96244013937712</v>
       </c>
       <c r="I44" t="n">
-        <v>86.44056862915532</v>
+        <v>86.44056862915531</v>
       </c>
       <c r="J44" t="n">
         <v>190.2998563436553</v>
@@ -34374,31 +34374,31 @@
         <v>285.2101545103667</v>
       </c>
       <c r="L44" t="n">
-        <v>353.8284166771397</v>
+        <v>353.8284166771396</v>
       </c>
       <c r="M44" t="n">
-        <v>393.7022889904459</v>
+        <v>393.7022889904458</v>
       </c>
       <c r="N44" t="n">
         <v>400.0728036293821</v>
       </c>
       <c r="O44" t="n">
-        <v>377.7774037381647</v>
+        <v>377.7774037381645</v>
       </c>
       <c r="P44" t="n">
         <v>322.4242739013895</v>
       </c>
       <c r="Q44" t="n">
-        <v>242.1272020115867</v>
+        <v>242.1272020115866</v>
       </c>
       <c r="R44" t="n">
         <v>140.8435865158207</v>
       </c>
       <c r="S44" t="n">
-        <v>51.09304085693216</v>
+        <v>51.09304085693215</v>
       </c>
       <c r="T44" t="n">
-        <v>9.815020794348674</v>
+        <v>9.815020794348673</v>
       </c>
       <c r="U44" t="n">
         <v>0.1793721675723343</v>
@@ -34441,7 +34441,7 @@
         <v>1.199657132531244</v>
       </c>
       <c r="H45" t="n">
-        <v>11.5861623062886</v>
+        <v>11.58616230628859</v>
       </c>
       <c r="I45" t="n">
         <v>41.30398460688713</v>
@@ -34450,37 +34450,37 @@
         <v>113.3412907537523</v>
       </c>
       <c r="K45" t="n">
-        <v>193.7183186333457</v>
+        <v>193.7183186333456</v>
       </c>
       <c r="L45" t="n">
-        <v>260.4781857278914</v>
+        <v>260.4781857278913</v>
       </c>
       <c r="M45" t="n">
-        <v>303.965756782149</v>
+        <v>303.9657567821489</v>
       </c>
       <c r="N45" t="n">
-        <v>312.0108258858344</v>
+        <v>312.0108258858343</v>
       </c>
       <c r="O45" t="n">
         <v>285.4289494229052</v>
       </c>
       <c r="P45" t="n">
-        <v>229.0818957725672</v>
+        <v>229.0818957725671</v>
       </c>
       <c r="Q45" t="n">
         <v>153.1351806367953</v>
       </c>
       <c r="R45" t="n">
-        <v>74.48397529873814</v>
+        <v>74.48397529873813</v>
       </c>
       <c r="S45" t="n">
-        <v>22.28310507135884</v>
+        <v>22.28310507135883</v>
       </c>
       <c r="T45" t="n">
-        <v>4.83546010875532</v>
+        <v>4.835460108755319</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07892481135073977</v>
+        <v>0.07892481135073975</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.005752240819263</v>
+        <v>1.005752240819262</v>
       </c>
       <c r="H46" t="n">
-        <v>8.942051741102178</v>
+        <v>8.942051741102176</v>
       </c>
       <c r="I46" t="n">
         <v>30.24571284209201</v>
       </c>
       <c r="J46" t="n">
-        <v>71.10668342592186</v>
+        <v>71.10668342592184</v>
       </c>
       <c r="K46" t="n">
-        <v>116.8501239788198</v>
+        <v>116.8501239788197</v>
       </c>
       <c r="L46" t="n">
         <v>149.5279286032566</v>
@@ -34538,7 +34538,7 @@
         <v>157.656235349514</v>
       </c>
       <c r="N46" t="n">
-        <v>153.9075224519151</v>
+        <v>153.907522451915</v>
       </c>
       <c r="O46" t="n">
         <v>142.1585076387082</v>
@@ -34547,19 +34547,19 @@
         <v>121.6411619259951</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.21803536532934</v>
+        <v>84.21803536532933</v>
       </c>
       <c r="R46" t="n">
-        <v>45.22227802810974</v>
+        <v>45.22227802810973</v>
       </c>
       <c r="S46" t="n">
         <v>17.52751859682296</v>
       </c>
       <c r="T46" t="n">
-        <v>4.29730502895503</v>
+        <v>4.297305028955029</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0548592131355962</v>
+        <v>0.05485921313559619</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>98.94742090528067</v>
+        <v>98.94742090528061</v>
       </c>
       <c r="L11" t="n">
-        <v>178.2914720615594</v>
+        <v>178.2914720615593</v>
       </c>
       <c r="M11" t="n">
-        <v>227.55125180232</v>
+        <v>227.5512518023199</v>
       </c>
       <c r="N11" t="n">
-        <v>224.3217174216733</v>
+        <v>224.3217174216732</v>
       </c>
       <c r="O11" t="n">
-        <v>174.5384561929479</v>
+        <v>174.5384561929478</v>
       </c>
       <c r="P11" t="n">
         <v>104.3710265784534</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1223182095605</v>
+        <v>45.05162432814006</v>
       </c>
       <c r="L12" t="n">
         <v>215.0291501391908</v>
       </c>
       <c r="M12" t="n">
-        <v>189.5061253820008</v>
+        <v>254.5768192634215</v>
       </c>
       <c r="N12" t="n">
         <v>254.5768192634215</v>
       </c>
       <c r="O12" t="n">
-        <v>238.7869319680609</v>
+        <v>238.7869319680608</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>23.25050988105899</v>
+        <v>23.25050988105896</v>
       </c>
       <c r="M13" t="n">
-        <v>33.19711952506694</v>
+        <v>33.19711952506691</v>
       </c>
       <c r="N13" t="n">
-        <v>40.50487355486329</v>
+        <v>40.50487355486327</v>
       </c>
       <c r="O13" t="n">
-        <v>15.19296182938417</v>
+        <v>15.19296182938415</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>98.94742090528067</v>
+        <v>98.94742090528061</v>
       </c>
       <c r="L14" t="n">
-        <v>178.2914720615594</v>
+        <v>178.2914720615593</v>
       </c>
       <c r="M14" t="n">
-        <v>227.55125180232</v>
+        <v>227.5512518023199</v>
       </c>
       <c r="N14" t="n">
-        <v>224.3217174216733</v>
+        <v>224.3217174216732</v>
       </c>
       <c r="O14" t="n">
-        <v>174.5384561929479</v>
+        <v>174.5384561929478</v>
       </c>
       <c r="P14" t="n">
         <v>104.3710265784534</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1223182095605</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>215.0291501391908</v>
       </c>
       <c r="M15" t="n">
+        <v>249.7590326951526</v>
+      </c>
+      <c r="N15" t="n">
         <v>254.5768192634215</v>
       </c>
-      <c r="N15" t="n">
-        <v>209.0755784347386</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>238.7869319680608</v>
       </c>
       <c r="P15" t="n">
-        <v>169.348068018914</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.86941089640901</v>
+        <v>49.86941089640898</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>23.25050988105899</v>
+        <v>23.25050988105896</v>
       </c>
       <c r="M16" t="n">
-        <v>33.19711952506694</v>
+        <v>33.19711952506691</v>
       </c>
       <c r="N16" t="n">
-        <v>40.50487355486329</v>
+        <v>40.50487355486327</v>
       </c>
       <c r="O16" t="n">
-        <v>15.19296182938417</v>
+        <v>15.19296182938415</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>116.507683898026</v>
+        <v>65.80279465818974</v>
       </c>
       <c r="L18" t="n">
         <v>223.615062310402</v>
@@ -35974,13 +35974,13 @@
         <v>274.3489689505702</v>
       </c>
       <c r="N18" t="n">
-        <v>46.74498767181817</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O18" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P18" t="n">
-        <v>176.8990920389158</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>10.88572417525554</v>
       </c>
       <c r="L21" t="n">
         <v>223.615062310402</v>
       </c>
       <c r="M21" t="n">
-        <v>163.2526715698441</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N21" t="n">
         <v>274.3489689505702</v>
@@ -36217,10 +36217,10 @@
         <v>248.1952741062629</v>
       </c>
       <c r="P21" t="n">
-        <v>176.8990920389158</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>54.91707048293421</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K23" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L23" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M23" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N23" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O23" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P23" t="n">
         <v>248.8455819750814</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>40.30637712100389</v>
       </c>
       <c r="K24" t="n">
-        <v>167.651363061504</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L24" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M24" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N24" t="n">
         <v>462.3877957187904</v>
@@ -36457,7 +36457,7 @@
         <v>271.9969928057635</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.4874987046792</v>
+        <v>48.9072479764002</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L25" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M25" t="n">
         <v>103.8410392027566</v>
@@ -36530,10 +36530,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O25" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P25" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K26" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L26" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M26" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N26" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P26" t="n">
         <v>248.8455819750814</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>40.30637712100391</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>196.9252366687787</v>
+        <v>167.6513630615031</v>
       </c>
       <c r="L27" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M27" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N27" t="n">
         <v>462.3877957187904</v>
       </c>
       <c r="O27" t="n">
-        <v>297.1040633637248</v>
+        <v>366.6843140920038</v>
       </c>
       <c r="P27" t="n">
         <v>271.9969928057635</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L28" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M28" t="n">
         <v>103.8410392027566</v>
@@ -36767,10 +36767,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O28" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P28" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K29" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L29" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M29" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N29" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P29" t="n">
         <v>248.8455819750814</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.30637712100391</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>196.9252366687787</v>
+        <v>167.6513630615031</v>
       </c>
       <c r="L30" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M30" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N30" t="n">
-        <v>392.8075449905112</v>
+        <v>462.3877957187904</v>
       </c>
       <c r="O30" t="n">
         <v>366.6843140920038</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L31" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M31" t="n">
         <v>103.8410392027566</v>
@@ -37004,10 +37004,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O31" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P31" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K32" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L32" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M32" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N32" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O32" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P32" t="n">
         <v>248.8455819750814</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.30637712100391</v>
+        <v>40.30637712100389</v>
       </c>
       <c r="K33" t="n">
-        <v>196.9252366687787</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L33" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M33" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N33" t="n">
-        <v>392.8075449905112</v>
+        <v>392.807544990511</v>
       </c>
       <c r="O33" t="n">
         <v>366.6843140920038</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L34" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M34" t="n">
         <v>103.8410392027566</v>
@@ -37241,10 +37241,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O34" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P34" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K35" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L35" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M35" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N35" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O35" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P35" t="n">
         <v>248.8455819750814</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>40.30637712100391</v>
+        <v>40.30637712100389</v>
       </c>
       <c r="K36" t="n">
-        <v>196.9252366687787</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L36" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M36" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N36" t="n">
         <v>462.3877957187904</v>
@@ -37405,7 +37405,7 @@
         <v>271.9969928057635</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.90724797640065</v>
+        <v>48.9072479764002</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L37" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M37" t="n">
         <v>103.8410392027566</v>
@@ -37478,10 +37478,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O37" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P37" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K38" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L38" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M38" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N38" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O38" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P38" t="n">
         <v>248.8455819750814</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>40.30637712100391</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>196.9252366687787</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L39" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M39" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N39" t="n">
         <v>462.3877957187904</v>
@@ -37642,7 +37642,7 @@
         <v>271.9969928057635</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.9072479764002</v>
+        <v>89.21362509740351</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L40" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M40" t="n">
         <v>103.8410392027566</v>
@@ -37715,10 +37715,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O40" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P40" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K41" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L41" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M41" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N41" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O41" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P41" t="n">
         <v>248.8455819750814</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.30637712100391</v>
+        <v>40.30637712100389</v>
       </c>
       <c r="K42" t="n">
-        <v>196.9252366687787</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L42" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M42" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N42" t="n">
         <v>462.3877957187904</v>
@@ -37876,10 +37876,10 @@
         <v>366.6843140920038</v>
       </c>
       <c r="P42" t="n">
-        <v>271.9969928057635</v>
+        <v>202.4167420774841</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.90724797640065</v>
+        <v>118.4874987046792</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L43" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M43" t="n">
         <v>103.8410392027566</v>
@@ -37952,10 +37952,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O43" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P43" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>78.99845945260184</v>
+        <v>78.99845945260181</v>
       </c>
       <c r="K44" t="n">
         <v>226.7467635816052</v>
       </c>
       <c r="L44" t="n">
-        <v>336.8378574424471</v>
+        <v>336.837857442447</v>
       </c>
       <c r="M44" t="n">
-        <v>403.9646541565287</v>
+        <v>403.9646541565286</v>
       </c>
       <c r="N44" t="n">
         <v>403.5896730605069</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8161032619658</v>
+        <v>343.8161032619657</v>
       </c>
       <c r="P44" t="n">
         <v>248.8455819750814</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>196.9252366687787</v>
+        <v>196.9252366687786</v>
       </c>
       <c r="L45" t="n">
         <v>331.7463861530864</v>
       </c>
       <c r="M45" t="n">
-        <v>432.3391167072866</v>
+        <v>432.3391167072865</v>
       </c>
       <c r="N45" t="n">
-        <v>433.1139221115153</v>
+        <v>462.3877957187904</v>
       </c>
       <c r="O45" t="n">
         <v>366.6843140920038</v>
@@ -38116,7 +38116,7 @@
         <v>271.9969928057635</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.4874987046792</v>
+        <v>89.21362509740351</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.62390960210145</v>
+        <v>28.62390960210142</v>
       </c>
       <c r="L46" t="n">
-        <v>90.25223013907313</v>
+        <v>90.25223013907311</v>
       </c>
       <c r="M46" t="n">
         <v>103.8410392027566</v>
@@ -38189,10 +38189,10 @@
         <v>109.4690387195418</v>
       </c>
       <c r="O46" t="n">
-        <v>78.89253053255185</v>
+        <v>78.89253053255182</v>
       </c>
       <c r="P46" t="n">
-        <v>41.09725001353367</v>
+        <v>41.09725001353365</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
